--- a/mnist_seven.xlsx
+++ b/mnist_seven.xlsx
@@ -1,75 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TaisukeIto\doga2\PythonProgramming\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C07BF96-C60B-495E-A33D-C09D5EAD87B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="seven" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="seven" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="6"/>
       <name val="Yu Gothic"/>
+      <family val="3"/>
       <charset val="128"/>
-      <family val="3"/>
-      <sz val="6"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
       <charset val="128"/>
-      <family val="1"/>
-      <color theme="1"/>
-      <sz val="16"/>
     </font>
     <font>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="20"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -106,27 +121,36 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -392,4816 +416,4813 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BX28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AB28" sqref="A1:AB28"/>
+      <selection activeCell="AK12" sqref="AK12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="6.59765625" defaultRowHeight="39.6" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="39.6" customHeight="1"/>
   <cols>
-    <col width="6.59765625" customWidth="1" style="2" min="1" max="28"/>
-    <col width="6.59765625" customWidth="1" style="1" min="29" max="45"/>
-    <col width="6.59765625" customWidth="1" style="4" min="46" max="69"/>
-    <col width="6.59765625" customWidth="1" style="3" min="70" max="75"/>
-    <col width="6.59765625" customWidth="1" style="1" min="76" max="76"/>
-    <col width="6.59765625" customWidth="1" style="1" min="77" max="16384"/>
+    <col min="1" max="28" width="6.59765625" style="2" customWidth="1"/>
+    <col min="29" max="45" width="6.59765625" style="1" customWidth="1"/>
+    <col min="46" max="69" width="6.59765625" style="4" customWidth="1"/>
+    <col min="70" max="75" width="6.59765625" style="3" customWidth="1"/>
+    <col min="76" max="77" width="6.59765625" style="1" customWidth="1"/>
+    <col min="78" max="16384" width="6.59765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39.6" customHeight="1">
-      <c r="A1" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="n">
+    <row r="1" spans="1:76" ht="39.6" customHeight="1">
+      <c r="A1" s="5">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="n">
+      <c r="C1" s="5">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1" s="5" t="n">
+      <c r="D1" s="5">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5">
+        <v>0</v>
+      </c>
+      <c r="F1" s="5">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="n">
+      <c r="G1" s="5">
         <v>1</v>
       </c>
-      <c r="H1" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J1" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K1" s="5" t="n">
+      <c r="H1" s="5">
+        <v>0</v>
+      </c>
+      <c r="I1" s="5">
+        <v>0</v>
+      </c>
+      <c r="J1" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1" s="5">
         <v>4</v>
       </c>
-      <c r="L1" s="5" t="n">
+      <c r="L1" s="5">
         <v>4</v>
       </c>
-      <c r="M1" s="5" t="n">
+      <c r="M1" s="5">
         <v>2</v>
       </c>
-      <c r="N1" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P1" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R1" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S1" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T1" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U1" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V1" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W1" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X1" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y1" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z1" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA1" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX1" s="3" t="n"/>
+      <c r="N1" s="5">
+        <v>0</v>
+      </c>
+      <c r="O1" s="5">
+        <v>0</v>
+      </c>
+      <c r="P1" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>0</v>
+      </c>
+      <c r="R1" s="5">
+        <v>0</v>
+      </c>
+      <c r="S1" s="5">
+        <v>0</v>
+      </c>
+      <c r="T1" s="5">
+        <v>0</v>
+      </c>
+      <c r="U1" s="5">
+        <v>0</v>
+      </c>
+      <c r="V1" s="5">
+        <v>0</v>
+      </c>
+      <c r="W1" s="5">
+        <v>0</v>
+      </c>
+      <c r="X1" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="5">
+        <v>0</v>
+      </c>
+      <c r="BX1" s="3"/>
     </row>
-    <row r="2" ht="39.6" customHeight="1">
-      <c r="A2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="n">
+    <row r="2" spans="1:76" ht="39.6" customHeight="1">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5" t="n">
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
         <v>3</v>
       </c>
-      <c r="I2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="5" t="n">
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
         <v>3</v>
       </c>
-      <c r="P2" s="5" t="n">
+      <c r="P2" s="5">
         <v>7</v>
       </c>
-      <c r="Q2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="5" t="n">
+      <c r="Q2" s="5">
+        <v>0</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0</v>
+      </c>
+      <c r="T2" s="5">
+        <v>0</v>
+      </c>
+      <c r="U2" s="5">
+        <v>0</v>
+      </c>
+      <c r="V2" s="5">
+        <v>0</v>
+      </c>
+      <c r="W2" s="5">
+        <v>0</v>
+      </c>
+      <c r="X2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="39.6" customHeight="1">
-      <c r="A3" s="5" t="n">
+    <row r="3" spans="1:76" ht="39.6" customHeight="1">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="n">
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="5">
         <v>11</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="5">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="5">
         <v>3</v>
       </c>
-      <c r="H3" s="5" t="n">
+      <c r="H3" s="5">
         <v>6</v>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="5">
         <v>4</v>
       </c>
-      <c r="J3" s="5" t="n">
+      <c r="J3" s="5">
         <v>4</v>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="K3" s="5">
         <v>3</v>
       </c>
-      <c r="L3" s="5" t="n">
+      <c r="L3" s="5">
         <v>2</v>
       </c>
-      <c r="M3" s="5" t="n">
+      <c r="M3" s="5">
         <v>1</v>
       </c>
-      <c r="N3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="5" t="n">
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5">
+        <v>0</v>
+      </c>
+      <c r="U3" s="5">
+        <v>0</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0</v>
+      </c>
+      <c r="W3" s="5">
+        <v>0</v>
+      </c>
+      <c r="X3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="5">
         <v>0</v>
       </c>
       <c r="AV3" s="4">
-        <f>SUMPRODUCT(A1:E5,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" ref="AV3:AV26" si="0">SUMPRODUCT(A1:E5,$AH$8:$AL$12)</f>
+        <v>7401</v>
       </c>
       <c r="AW3" s="4">
-        <f>SUMPRODUCT(B1:F5,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" ref="AW3:AW26" si="1">SUMPRODUCT(B1:F5,$AH$8:$AL$12)</f>
+        <v>6146</v>
       </c>
       <c r="AX3" s="4">
-        <f>SUMPRODUCT(C1:G5,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" ref="AX3:AX26" si="2">SUMPRODUCT(C1:G5,$AH$8:$AL$12)</f>
+        <v>3800</v>
       </c>
       <c r="AY3" s="4">
-        <f>SUMPRODUCT(D1:H5,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" ref="AY3:AY26" si="3">SUMPRODUCT(D1:H5,$AH$8:$AL$12)</f>
+        <v>6277</v>
       </c>
       <c r="AZ3" s="4">
-        <f>SUMPRODUCT(E1:I5,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" ref="AZ3:AZ26" si="4">SUMPRODUCT(E1:I5,$AH$8:$AL$12)</f>
+        <v>8213</v>
       </c>
       <c r="BA3" s="4">
-        <f>SUMPRODUCT(F1:J5,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" ref="BA3:BA26" si="5">SUMPRODUCT(F1:J5,$AH$8:$AL$12)</f>
+        <v>8451</v>
       </c>
       <c r="BB3" s="4">
-        <f>SUMPRODUCT(G1:K5,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" ref="BB3:BB26" si="6">SUMPRODUCT(G1:K5,$AH$8:$AL$12)</f>
+        <v>7679</v>
       </c>
       <c r="BC3" s="4">
-        <f>SUMPRODUCT(H1:L5,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" ref="BC3:BC26" si="7">SUMPRODUCT(H1:L5,$AH$8:$AL$12)</f>
+        <v>5962</v>
       </c>
       <c r="BD3" s="4">
-        <f>SUMPRODUCT(I1:M5,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" ref="BD3:BD26" si="8">SUMPRODUCT(I1:M5,$AH$8:$AL$12)</f>
+        <v>4383</v>
       </c>
       <c r="BE3" s="4">
-        <f>SUMPRODUCT(J1:N5,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" ref="BE3:BE26" si="9">SUMPRODUCT(J1:N5,$AH$8:$AL$12)</f>
+        <v>4222</v>
       </c>
       <c r="BF3" s="4">
-        <f>SUMPRODUCT(K1:O5,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" ref="BF3:BF26" si="10">SUMPRODUCT(K1:O5,$AH$8:$AL$12)</f>
+        <v>5444</v>
       </c>
       <c r="BG3" s="4">
-        <f>SUMPRODUCT(L1:P5,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" ref="BG3:BG26" si="11">SUMPRODUCT(L1:P5,$AH$8:$AL$12)</f>
+        <v>6302</v>
       </c>
       <c r="BH3" s="4">
-        <f>SUMPRODUCT(M1:Q5,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" ref="BH3:BH26" si="12">SUMPRODUCT(M1:Q5,$AH$8:$AL$12)</f>
+        <v>5098</v>
       </c>
       <c r="BI3" s="4">
-        <f>SUMPRODUCT(N1:R5,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" ref="BI3:BI26" si="13">SUMPRODUCT(N1:R5,$AH$8:$AL$12)</f>
+        <v>3624</v>
       </c>
       <c r="BJ3" s="4">
-        <f>SUMPRODUCT(O1:S5,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" ref="BJ3:BJ26" si="14">SUMPRODUCT(O1:S5,$AH$8:$AL$12)</f>
+        <v>2846</v>
       </c>
       <c r="BK3" s="4">
-        <f>SUMPRODUCT(P1:T5,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" ref="BK3:BK26" si="15">SUMPRODUCT(P1:T5,$AH$8:$AL$12)</f>
+        <v>1785</v>
       </c>
       <c r="BL3" s="4">
-        <f>SUMPRODUCT(Q1:U5,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" ref="BL3:BL26" si="16">SUMPRODUCT(Q1:U5,$AH$8:$AL$12)</f>
+        <v>0</v>
       </c>
       <c r="BM3" s="4">
-        <f>SUMPRODUCT(R1:V5,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" ref="BM3:BM26" si="17">SUMPRODUCT(R1:V5,$AH$8:$AL$12)</f>
+        <v>0</v>
       </c>
       <c r="BN3" s="4">
-        <f>SUMPRODUCT(S1:W5,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" ref="BN3:BN26" si="18">SUMPRODUCT(S1:W5,$AH$8:$AL$12)</f>
+        <v>0</v>
       </c>
       <c r="BO3" s="4">
-        <f>SUMPRODUCT(T1:X5,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" ref="BO3:BO26" si="19">SUMPRODUCT(T1:X5,$AH$8:$AL$12)</f>
+        <v>0</v>
       </c>
       <c r="BP3" s="4">
-        <f>SUMPRODUCT(U1:Y5,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" ref="BP3:BP26" si="20">SUMPRODUCT(U1:Y5,$AH$8:$AL$12)</f>
+        <v>0</v>
       </c>
       <c r="BQ3" s="4">
-        <f>SUMPRODUCT(V1:Z5,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" ref="BQ3:BQ26" si="21">SUMPRODUCT(V1:Z5,$AH$8:$AL$12)</f>
+        <v>0</v>
       </c>
       <c r="BR3" s="4">
-        <f>SUMPRODUCT(W1:AA5,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" ref="BR3:BR26" si="22">SUMPRODUCT(W1:AA5,$AH$8:$AL$12)</f>
+        <v>0</v>
       </c>
       <c r="BS3" s="4">
-        <f>SUMPRODUCT(X1:AB5,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" ref="BS3:BS26" si="23">SUMPRODUCT(X1:AB5,$AH$8:$AL$12)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" ht="39.6" customHeight="1">
-      <c r="A4" s="5" t="n">
+    <row r="4" spans="1:76" ht="39.6" customHeight="1">
+      <c r="A4" s="5">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5" t="n">
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
         <v>3</v>
       </c>
-      <c r="N4" s="5" t="n">
+      <c r="N4" s="5">
         <v>3</v>
       </c>
-      <c r="O4" s="5" t="n">
+      <c r="O4" s="5">
         <v>2</v>
       </c>
-      <c r="P4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="5" t="n">
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0</v>
+      </c>
+      <c r="T4" s="5">
+        <v>0</v>
+      </c>
+      <c r="U4" s="5">
+        <v>0</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0</v>
+      </c>
+      <c r="W4" s="5">
+        <v>0</v>
+      </c>
+      <c r="X4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="5">
         <v>0</v>
       </c>
       <c r="AV4" s="4">
-        <f>SUMPRODUCT(A2:E6,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>6069</v>
       </c>
       <c r="AW4" s="4">
-        <f>SUMPRODUCT(B2:F6,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>7592</v>
       </c>
       <c r="AX4" s="4">
-        <f>SUMPRODUCT(C2:G6,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>12326</v>
       </c>
       <c r="AY4" s="4">
-        <f>SUMPRODUCT(D2:H6,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>15038</v>
       </c>
       <c r="AZ4" s="4">
-        <f>SUMPRODUCT(E2:I6,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>13575</v>
       </c>
       <c r="BA4" s="4">
-        <f>SUMPRODUCT(F2:J6,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>10257</v>
       </c>
       <c r="BB4" s="4">
-        <f>SUMPRODUCT(G2:K6,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>8096</v>
       </c>
       <c r="BC4" s="4">
-        <f>SUMPRODUCT(H2:L6,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>6256</v>
       </c>
       <c r="BD4" s="4">
-        <f>SUMPRODUCT(I2:M6,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>4463</v>
       </c>
       <c r="BE4" s="4">
-        <f>SUMPRODUCT(J2:N6,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="9"/>
+        <v>5070</v>
       </c>
       <c r="BF4" s="4">
-        <f>SUMPRODUCT(K2:O6,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>5738</v>
       </c>
       <c r="BG4" s="4">
-        <f>SUMPRODUCT(L2:P6,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>6233</v>
       </c>
       <c r="BH4" s="4">
-        <f>SUMPRODUCT(M2:Q6,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>4182</v>
       </c>
       <c r="BI4" s="4">
-        <f>SUMPRODUCT(N2:R6,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>2957</v>
       </c>
       <c r="BJ4" s="4">
-        <f>SUMPRODUCT(O2:S6,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>2442</v>
       </c>
       <c r="BK4" s="4">
-        <f>SUMPRODUCT(P2:T6,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="15"/>
+        <v>1719</v>
       </c>
       <c r="BL4" s="4">
-        <f>SUMPRODUCT(Q2:U6,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="BM4" s="4">
-        <f>SUMPRODUCT(R2:V6,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="BN4" s="4">
-        <f>SUMPRODUCT(S2:W6,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="BO4" s="4">
-        <f>SUMPRODUCT(T2:X6,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="BP4" s="4">
-        <f>SUMPRODUCT(U2:Y6,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="BQ4" s="4">
-        <f>SUMPRODUCT(V2:Z6,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="BR4" s="4">
-        <f>SUMPRODUCT(W2:AA6,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="BS4" s="4">
-        <f>SUMPRODUCT(X2:AB6,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" ht="39.6" customHeight="1">
-      <c r="A5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5" t="n">
+    <row r="5" spans="1:76" ht="39.6" customHeight="1">
+      <c r="A5" s="5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5" t="n">
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
         <v>7</v>
       </c>
-      <c r="H5" s="5" t="n">
+      <c r="H5" s="5">
         <v>7</v>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="5">
         <v>8</v>
       </c>
-      <c r="J5" s="5" t="n">
+      <c r="J5" s="5">
         <v>4</v>
       </c>
-      <c r="K5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5" t="n">
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
         <v>2</v>
       </c>
-      <c r="O5" s="5" t="n">
+      <c r="O5" s="5">
         <v>3</v>
       </c>
-      <c r="P5" s="5" t="n">
+      <c r="P5" s="5">
         <v>3</v>
       </c>
-      <c r="Q5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="5" t="n">
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0</v>
+      </c>
+      <c r="W5" s="5">
+        <v>0</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="5">
         <v>0</v>
       </c>
       <c r="AV5" s="4">
-        <f>SUMPRODUCT(A3:E7,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>7513</v>
       </c>
       <c r="AW5" s="4">
-        <f>SUMPRODUCT(B3:F7,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>9559</v>
       </c>
       <c r="AX5" s="4">
-        <f>SUMPRODUCT(C3:G7,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>11310</v>
       </c>
       <c r="AY5" s="4">
-        <f>SUMPRODUCT(D3:H7,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>12516</v>
       </c>
       <c r="AZ5" s="4">
-        <f>SUMPRODUCT(E3:I7,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>12796</v>
       </c>
       <c r="BA5" s="4">
-        <f>SUMPRODUCT(F3:J7,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>13292</v>
       </c>
       <c r="BB5" s="4">
-        <f>SUMPRODUCT(G3:K7,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>10871</v>
       </c>
       <c r="BC5" s="4">
-        <f>SUMPRODUCT(H3:L7,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>7188</v>
       </c>
       <c r="BD5" s="4">
-        <f>SUMPRODUCT(I3:M7,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>5247</v>
       </c>
       <c r="BE5" s="4">
-        <f>SUMPRODUCT(J3:N7,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="9"/>
+        <v>5463</v>
       </c>
       <c r="BF5" s="4">
-        <f>SUMPRODUCT(K3:O7,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>6030</v>
       </c>
       <c r="BG5" s="4">
-        <f>SUMPRODUCT(L3:P7,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>5083</v>
       </c>
       <c r="BH5" s="4">
-        <f>SUMPRODUCT(M3:Q7,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>3297</v>
       </c>
       <c r="BI5" s="4">
-        <f>SUMPRODUCT(N3:R7,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>1444</v>
       </c>
       <c r="BJ5" s="4">
-        <f>SUMPRODUCT(O3:S7,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>636</v>
       </c>
       <c r="BK5" s="4">
-        <f>SUMPRODUCT(P3:T7,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="15"/>
+        <v>57</v>
       </c>
       <c r="BL5" s="4">
-        <f>SUMPRODUCT(Q3:U7,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="BM5" s="4">
-        <f>SUMPRODUCT(R3:V7,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="BN5" s="4">
-        <f>SUMPRODUCT(S3:W7,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="BO5" s="4">
-        <f>SUMPRODUCT(T3:X7,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="BP5" s="4">
-        <f>SUMPRODUCT(U3:Y7,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="BQ5" s="4">
-        <f>SUMPRODUCT(V3:Z7,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="BR5" s="4">
-        <f>SUMPRODUCT(W3:AA7,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="BS5" s="4">
-        <f>SUMPRODUCT(X3:AB7,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" ht="39.6" customHeight="1">
-      <c r="A6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="n">
+    <row r="6" spans="1:76" ht="39.6" customHeight="1">
+      <c r="A6" s="5">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
         <v>6</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="5">
         <v>10</v>
       </c>
-      <c r="G6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5" t="n">
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
         <v>2</v>
       </c>
-      <c r="N6" s="5" t="n">
+      <c r="N6" s="5">
         <v>2</v>
       </c>
-      <c r="O6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="5" t="n">
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="5">
         <v>0</v>
       </c>
       <c r="AV6" s="4">
-        <f>SUMPRODUCT(A4:E8,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>9470</v>
       </c>
       <c r="AW6" s="4">
-        <f>SUMPRODUCT(B4:F8,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>9846</v>
       </c>
       <c r="AX6" s="4">
-        <f>SUMPRODUCT(C4:G8,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>8766</v>
       </c>
       <c r="AY6" s="4">
-        <f>SUMPRODUCT(D4:H8,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>30745</v>
       </c>
       <c r="AZ6" s="4">
-        <f>SUMPRODUCT(E4:I8,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>80756</v>
       </c>
       <c r="BA6" s="4">
-        <f>SUMPRODUCT(F4:J8,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>108284</v>
       </c>
       <c r="BB6" s="4">
-        <f>SUMPRODUCT(G4:K8,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>100172</v>
       </c>
       <c r="BC6" s="4">
-        <f>SUMPRODUCT(H4:L8,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>72313</v>
       </c>
       <c r="BD6" s="4">
-        <f>SUMPRODUCT(I4:M8,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>43241</v>
       </c>
       <c r="BE6" s="4">
-        <f>SUMPRODUCT(J4:N8,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="9"/>
+        <v>20524</v>
       </c>
       <c r="BF6" s="4">
-        <f>SUMPRODUCT(K4:O8,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>8289</v>
       </c>
       <c r="BG6" s="4">
-        <f>SUMPRODUCT(L4:P8,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>4798</v>
       </c>
       <c r="BH6" s="4">
-        <f>SUMPRODUCT(M4:Q8,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>4792</v>
       </c>
       <c r="BI6" s="4">
-        <f>SUMPRODUCT(N4:R8,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>4059</v>
       </c>
       <c r="BJ6" s="4">
-        <f>SUMPRODUCT(O4:S8,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>2280</v>
       </c>
       <c r="BK6" s="4">
-        <f>SUMPRODUCT(P4:T8,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="15"/>
+        <v>765</v>
       </c>
       <c r="BL6" s="4">
-        <f>SUMPRODUCT(Q4:U8,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="BM6" s="4">
-        <f>SUMPRODUCT(R4:V8,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="BN6" s="4">
-        <f>SUMPRODUCT(S4:W8,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="BO6" s="4">
-        <f>SUMPRODUCT(T4:X8,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="BP6" s="4">
-        <f>SUMPRODUCT(U4:Y8,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="BQ6" s="4">
-        <f>SUMPRODUCT(V4:Z8,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="BR6" s="4">
-        <f>SUMPRODUCT(W4:AA8,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="BS6" s="4">
-        <f>SUMPRODUCT(X4:AB8,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" ht="39.6" customHeight="1">
-      <c r="A7" s="5" t="n">
+    <row r="7" spans="1:76" ht="39.6" customHeight="1">
+      <c r="A7" s="5">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5" t="n">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
         <v>7</v>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="I7" s="5">
         <v>11</v>
       </c>
-      <c r="J7" s="5" t="n">
+      <c r="J7" s="5">
         <v>5</v>
       </c>
-      <c r="K7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="n">
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
         <v>2</v>
       </c>
-      <c r="O7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="5" t="n">
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0</v>
+      </c>
+      <c r="U7" s="5">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="5">
         <v>0</v>
       </c>
       <c r="AV7" s="4">
-        <f>SUMPRODUCT(A5:E9,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>8260</v>
       </c>
       <c r="AW7" s="4">
-        <f>SUMPRODUCT(B5:F9,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>9785</v>
       </c>
       <c r="AX7" s="4">
-        <f>SUMPRODUCT(C5:G9,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>30707</v>
       </c>
       <c r="AY7" s="4">
-        <f>SUMPRODUCT(D5:H9,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>130813</v>
       </c>
       <c r="AZ7" s="4">
-        <f>SUMPRODUCT(E5:I9,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>231744</v>
       </c>
       <c r="BA7" s="4">
-        <f>SUMPRODUCT(F5:J9,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>258831</v>
       </c>
       <c r="BB7" s="4">
-        <f>SUMPRODUCT(G5:K9,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>235113</v>
       </c>
       <c r="BC7" s="4">
-        <f>SUMPRODUCT(H5:L9,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>205032</v>
       </c>
       <c r="BD7" s="4">
-        <f>SUMPRODUCT(I5:M9,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>176943</v>
       </c>
       <c r="BE7" s="4">
-        <f>SUMPRODUCT(J5:N9,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="9"/>
+        <v>150888</v>
       </c>
       <c r="BF7" s="4">
-        <f>SUMPRODUCT(K5:O9,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>131674</v>
       </c>
       <c r="BG7" s="4">
         <f>SUMPRODUCT(L5:P9,$AH$8:$AL$12)</f>
-        <v/>
+        <v>123548</v>
       </c>
       <c r="BH7" s="4">
-        <f>SUMPRODUCT(M5:Q9,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>122036</v>
       </c>
       <c r="BI7" s="4">
-        <f>SUMPRODUCT(N5:R9,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>120434</v>
       </c>
       <c r="BJ7" s="4">
-        <f>SUMPRODUCT(O5:S9,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>121044</v>
       </c>
       <c r="BK7" s="4">
-        <f>SUMPRODUCT(P5:T9,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="15"/>
+        <v>122094</v>
       </c>
       <c r="BL7" s="4">
-        <f>SUMPRODUCT(Q5:U9,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>125196</v>
       </c>
       <c r="BM7" s="4">
-        <f>SUMPRODUCT(R5:V9,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>114636</v>
       </c>
       <c r="BN7" s="4">
-        <f>SUMPRODUCT(S5:W9,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="18"/>
+        <v>71952</v>
       </c>
       <c r="BO7" s="4">
-        <f>SUMPRODUCT(T5:X9,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="19"/>
+        <v>27165</v>
       </c>
       <c r="BP7" s="4">
-        <f>SUMPRODUCT(U5:Y9,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="20"/>
+        <v>5400</v>
       </c>
       <c r="BQ7" s="4">
-        <f>SUMPRODUCT(V5:Z9,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>540</v>
       </c>
       <c r="BR7" s="4">
-        <f>SUMPRODUCT(W5:AA9,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="BS7" s="4">
-        <f>SUMPRODUCT(X5:AB9,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" ht="39.6" customHeight="1">
-      <c r="A8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5" t="n">
+    <row r="8" spans="1:76" ht="39.6" customHeight="1">
+      <c r="A8" s="5">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
         <v>5</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="5">
         <v>7</v>
       </c>
-      <c r="E8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5" t="n">
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
         <v>4</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="5">
         <v>87</v>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="H8" s="5">
         <v>181</v>
       </c>
-      <c r="I8" s="5" t="n">
+      <c r="I8" s="5">
         <v>161</v>
       </c>
-      <c r="J8" s="5" t="n">
+      <c r="J8" s="5">
         <v>127</v>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="K8" s="5">
         <v>76</v>
       </c>
-      <c r="L8" s="5" t="n">
+      <c r="L8" s="5">
         <v>31</v>
       </c>
-      <c r="M8" s="5" t="n">
+      <c r="M8" s="5">
         <v>5</v>
       </c>
-      <c r="N8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="5" t="n">
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
         <v>3</v>
       </c>
-      <c r="Q8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="6" t="n">
+      <c r="Q8" s="5">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0</v>
+      </c>
+      <c r="T8" s="5">
+        <v>0</v>
+      </c>
+      <c r="U8" s="5">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5">
+        <v>0</v>
+      </c>
+      <c r="W8" s="5">
+        <v>0</v>
+      </c>
+      <c r="X8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="6">
         <v>240</v>
       </c>
-      <c r="AI8" s="6" t="n">
+      <c r="AI8" s="6">
         <v>235</v>
       </c>
-      <c r="AJ8" s="6" t="n">
+      <c r="AJ8" s="6">
         <v>239</v>
       </c>
-      <c r="AK8" s="6" t="n">
+      <c r="AK8" s="6">
         <v>240</v>
       </c>
-      <c r="AL8" s="6" t="n">
+      <c r="AL8" s="6">
         <v>251</v>
       </c>
       <c r="AV8" s="4">
-        <f>SUMPRODUCT(A6:E10,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>7352</v>
       </c>
       <c r="AW8" s="4">
-        <f>SUMPRODUCT(B6:F10,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>5865</v>
       </c>
       <c r="AX8" s="4">
-        <f>SUMPRODUCT(C6:G10,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>76999</v>
       </c>
       <c r="AY8" s="4">
-        <f>SUMPRODUCT(D6:H10,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>210413</v>
       </c>
       <c r="AZ8" s="4">
-        <f>SUMPRODUCT(E6:I10,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>297895</v>
       </c>
       <c r="BA8" s="4">
-        <f>SUMPRODUCT(F6:J10,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>296713</v>
       </c>
       <c r="BB8" s="4">
-        <f>SUMPRODUCT(G6:K10,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>281736</v>
       </c>
       <c r="BC8" s="4">
-        <f>SUMPRODUCT(H6:L10,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>277685</v>
       </c>
       <c r="BD8" s="4">
-        <f>SUMPRODUCT(I6:M10,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>277407</v>
       </c>
       <c r="BE8" s="4">
-        <f>SUMPRODUCT(J6:N10,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="9"/>
+        <v>279320</v>
       </c>
       <c r="BF8" s="4">
-        <f>SUMPRODUCT(K6:O10,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>275463</v>
       </c>
       <c r="BG8" s="4">
         <f>SUMPRODUCT(L6:P10,$AH$8:$AL$12)</f>
-        <v/>
+        <v>277450</v>
       </c>
       <c r="BH8" s="4">
-        <f>SUMPRODUCT(M6:Q10,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>278678</v>
       </c>
       <c r="BI8" s="4">
-        <f>SUMPRODUCT(N6:R10,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>280561</v>
       </c>
       <c r="BJ8" s="4">
-        <f>SUMPRODUCT(O6:S10,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>280466</v>
       </c>
       <c r="BK8" s="4">
-        <f>SUMPRODUCT(P6:T10,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="15"/>
+        <v>278086</v>
       </c>
       <c r="BL8" s="4">
-        <f>SUMPRODUCT(Q6:U10,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>264672</v>
       </c>
       <c r="BM8" s="4">
-        <f>SUMPRODUCT(R6:V10,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>231369</v>
       </c>
       <c r="BN8" s="4">
-        <f>SUMPRODUCT(S6:W10,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="18"/>
+        <v>160479</v>
       </c>
       <c r="BO8" s="4">
-        <f>SUMPRODUCT(T6:X10,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="19"/>
+        <v>70184</v>
       </c>
       <c r="BP8" s="4">
-        <f>SUMPRODUCT(U6:Y10,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="20"/>
+        <v>17059</v>
       </c>
       <c r="BQ8" s="4">
-        <f>SUMPRODUCT(V6:Z10,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>1429</v>
       </c>
       <c r="BR8" s="4">
-        <f>SUMPRODUCT(W6:AA10,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="22"/>
+        <v>258</v>
       </c>
       <c r="BS8" s="4">
-        <f>SUMPRODUCT(X6:AB10,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" ht="39.6" customHeight="1">
-      <c r="A9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" s="5" t="n">
+    <row r="9" spans="1:76" ht="39.6" customHeight="1">
+      <c r="A9" s="5">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5">
         <v>2</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="5">
         <v>2</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="5">
         <v>1</v>
       </c>
-      <c r="F9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5" t="n">
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
         <v>220</v>
       </c>
-      <c r="H9" s="5" t="n">
+      <c r="H9" s="5">
         <v>255</v>
       </c>
-      <c r="I9" s="5" t="n">
+      <c r="I9" s="5">
         <v>246</v>
       </c>
-      <c r="J9" s="5" t="n">
+      <c r="J9" s="5">
         <v>255</v>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="K9" s="5">
         <v>246</v>
       </c>
-      <c r="L9" s="5" t="n">
+      <c r="L9" s="5">
         <v>246</v>
       </c>
-      <c r="M9" s="5" t="n">
+      <c r="M9" s="5">
         <v>208</v>
       </c>
-      <c r="N9" s="5" t="n">
+      <c r="N9" s="5">
         <v>195</v>
       </c>
-      <c r="O9" s="5" t="n">
+      <c r="O9" s="5">
         <v>191</v>
       </c>
-      <c r="P9" s="5" t="n">
+      <c r="P9" s="5">
         <v>195</v>
       </c>
-      <c r="Q9" s="5" t="n">
+      <c r="Q9" s="5">
         <v>189</v>
       </c>
-      <c r="R9" s="5" t="n">
+      <c r="R9" s="5">
         <v>202</v>
       </c>
-      <c r="S9" s="5" t="n">
+      <c r="S9" s="5">
         <v>197</v>
       </c>
-      <c r="T9" s="5" t="n">
+      <c r="T9" s="5">
         <v>215</v>
       </c>
-      <c r="U9" s="5" t="n">
+      <c r="U9" s="5">
         <v>163</v>
       </c>
-      <c r="V9" s="5" t="n">
+      <c r="V9" s="5">
         <v>43</v>
       </c>
-      <c r="W9" s="5" t="n">
+      <c r="W9" s="5">
         <v>6</v>
       </c>
-      <c r="X9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="6" t="n">
+      <c r="X9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="6">
         <v>255</v>
       </c>
-      <c r="AI9" s="6" t="n">
+      <c r="AI9" s="6">
         <v>255</v>
       </c>
-      <c r="AJ9" s="6" t="n">
+      <c r="AJ9" s="6">
         <v>255</v>
       </c>
-      <c r="AK9" s="6" t="n">
+      <c r="AK9" s="6">
         <v>255</v>
       </c>
-      <c r="AL9" s="6" t="n">
+      <c r="AL9" s="6">
         <v>255</v>
       </c>
       <c r="AV9" s="4">
-        <f>SUMPRODUCT(A7:E11,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>8364</v>
       </c>
       <c r="AW9" s="4">
-        <f>SUMPRODUCT(B7:F11,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>5814</v>
       </c>
       <c r="AX9" s="4">
-        <f>SUMPRODUCT(C7:G11,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>104826</v>
       </c>
       <c r="AY9" s="4">
-        <f>SUMPRODUCT(D7:H11,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>239601</v>
       </c>
       <c r="AZ9" s="4">
-        <f>SUMPRODUCT(E7:I11,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>301055</v>
       </c>
       <c r="BA9" s="4">
-        <f>SUMPRODUCT(F7:J11,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>341936</v>
       </c>
       <c r="BB9" s="4">
-        <f>SUMPRODUCT(G7:K11,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>381330</v>
       </c>
       <c r="BC9" s="4">
-        <f>SUMPRODUCT(H7:L11,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>397797</v>
       </c>
       <c r="BD9" s="4">
-        <f>SUMPRODUCT(I7:M11,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>375944</v>
       </c>
       <c r="BE9" s="4">
-        <f>SUMPRODUCT(J7:N11,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="9"/>
+        <v>345384</v>
       </c>
       <c r="BF9" s="4">
-        <f>SUMPRODUCT(K7:O11,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>314198</v>
       </c>
       <c r="BG9" s="4">
         <f>SUMPRODUCT(L7:P11,$AH$8:$AL$12)</f>
-        <v/>
+        <v>300800</v>
       </c>
       <c r="BH9" s="4">
-        <f>SUMPRODUCT(M7:Q11,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>301341</v>
       </c>
       <c r="BI9" s="4">
-        <f>SUMPRODUCT(N7:R11,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>305740</v>
       </c>
       <c r="BJ9" s="4">
-        <f>SUMPRODUCT(O7:S11,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>301192</v>
       </c>
       <c r="BK9" s="4">
-        <f>SUMPRODUCT(P7:T11,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="15"/>
+        <v>289698</v>
       </c>
       <c r="BL9" s="4">
-        <f>SUMPRODUCT(Q7:U11,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>329361</v>
       </c>
       <c r="BM9" s="4">
-        <f>SUMPRODUCT(R7:V11,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>323370</v>
       </c>
       <c r="BN9" s="4">
-        <f>SUMPRODUCT(S7:W11,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="18"/>
+        <v>214654</v>
       </c>
       <c r="BO9" s="4">
-        <f>SUMPRODUCT(T7:X11,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="19"/>
+        <v>86513</v>
       </c>
       <c r="BP9" s="4">
-        <f>SUMPRODUCT(U7:Y11,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="20"/>
+        <v>21623</v>
       </c>
       <c r="BQ9" s="4">
-        <f>SUMPRODUCT(V7:Z11,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>6122</v>
       </c>
       <c r="BR9" s="4">
-        <f>SUMPRODUCT(W7:AA11,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="22"/>
+        <v>1246</v>
       </c>
       <c r="BS9" s="4">
-        <f>SUMPRODUCT(X7:AB11,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="23"/>
+        <v>26</v>
       </c>
     </row>
-    <row r="10" ht="39.6" customHeight="1">
-      <c r="A10" s="5" t="n">
+    <row r="10" spans="1:76" ht="39.6" customHeight="1">
+      <c r="A10" s="5">
         <v>5</v>
       </c>
-      <c r="B10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5" t="n">
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
         <v>3</v>
       </c>
-      <c r="D10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5" t="n">
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <v>98</v>
       </c>
-      <c r="H10" s="5" t="n">
+      <c r="H10" s="5">
         <v>104</v>
       </c>
-      <c r="I10" s="5" t="n">
+      <c r="I10" s="5">
         <v>79</v>
       </c>
-      <c r="J10" s="5" t="n">
+      <c r="J10" s="5">
         <v>113</v>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="K10" s="5">
         <v>161</v>
       </c>
-      <c r="L10" s="5" t="n">
+      <c r="L10" s="5">
         <v>218</v>
       </c>
-      <c r="M10" s="5" t="n">
+      <c r="M10" s="5">
         <v>246</v>
       </c>
-      <c r="N10" s="5" t="n">
+      <c r="N10" s="5">
         <v>240</v>
       </c>
-      <c r="O10" s="5" t="n">
+      <c r="O10" s="5">
         <v>255</v>
       </c>
-      <c r="P10" s="5" t="n">
+      <c r="P10" s="5">
         <v>255</v>
       </c>
-      <c r="Q10" s="5" t="n">
+      <c r="Q10" s="5">
         <v>255</v>
       </c>
-      <c r="R10" s="5" t="n">
+      <c r="R10" s="5">
         <v>255</v>
       </c>
-      <c r="S10" s="5" t="n">
+      <c r="S10" s="5">
         <v>227</v>
       </c>
-      <c r="T10" s="5" t="n">
+      <c r="T10" s="5">
         <v>232</v>
       </c>
-      <c r="U10" s="5" t="n">
+      <c r="U10" s="5">
         <v>255</v>
       </c>
-      <c r="V10" s="5" t="n">
+      <c r="V10" s="5">
         <v>139</v>
       </c>
-      <c r="W10" s="5" t="n">
+      <c r="W10" s="5">
         <v>4</v>
       </c>
-      <c r="X10" s="5" t="n">
+      <c r="X10" s="5">
         <v>2</v>
       </c>
-      <c r="Y10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="6" t="n">
+      <c r="Y10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="6">
         <v>19</v>
       </c>
-      <c r="AI10" s="6" t="n">
+      <c r="AI10" s="6">
         <v>23</v>
       </c>
-      <c r="AJ10" s="6" t="n">
+      <c r="AJ10" s="6">
         <v>12</v>
       </c>
-      <c r="AK10" s="6" t="n">
+      <c r="AK10" s="6">
         <v>243</v>
       </c>
-      <c r="AL10" s="6" t="n">
+      <c r="AL10" s="6">
         <v>255</v>
       </c>
       <c r="AV10" s="4">
-        <f>SUMPRODUCT(A8:E12,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>7879</v>
       </c>
       <c r="AW10" s="4">
-        <f>SUMPRODUCT(B8:F12,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>7032</v>
       </c>
       <c r="AX10" s="4">
-        <f>SUMPRODUCT(C8:G12,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>109810</v>
       </c>
       <c r="AY10" s="4">
-        <f>SUMPRODUCT(D8:H12,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>242527</v>
       </c>
       <c r="AZ10" s="4">
-        <f>SUMPRODUCT(E8:I12,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>337923</v>
       </c>
       <c r="BA10" s="4">
-        <f>SUMPRODUCT(F8:J12,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>436745</v>
       </c>
       <c r="BB10" s="4">
-        <f>SUMPRODUCT(G8:K12,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>539527</v>
       </c>
       <c r="BC10" s="4">
-        <f>SUMPRODUCT(H8:L12,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>564330</v>
       </c>
       <c r="BD10" s="4">
-        <f>SUMPRODUCT(I8:M12,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>543286</v>
       </c>
       <c r="BE10" s="4">
-        <f>SUMPRODUCT(J8:N12,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="9"/>
+        <v>504863</v>
       </c>
       <c r="BF10" s="4">
-        <f>SUMPRODUCT(K8:O12,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>465937</v>
       </c>
       <c r="BG10" s="4">
         <f>SUMPRODUCT(L8:P12,$AH$8:$AL$12)</f>
-        <v/>
+        <v>446927</v>
       </c>
       <c r="BH10" s="4">
-        <f>SUMPRODUCT(M8:Q12,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>434162</v>
       </c>
       <c r="BI10" s="4">
-        <f>SUMPRODUCT(N8:R12,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>433813</v>
       </c>
       <c r="BJ10" s="4">
-        <f>SUMPRODUCT(O8:S12,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>415107</v>
       </c>
       <c r="BK10" s="4">
-        <f>SUMPRODUCT(P8:T12,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="15"/>
+        <v>474634</v>
       </c>
       <c r="BL10" s="4">
-        <f>SUMPRODUCT(Q8:U12,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>587556</v>
       </c>
       <c r="BM10" s="4">
-        <f>SUMPRODUCT(R8:V12,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>565747</v>
       </c>
       <c r="BN10" s="4">
-        <f>SUMPRODUCT(S8:W12,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="18"/>
+        <v>347932</v>
       </c>
       <c r="BO10" s="4">
-        <f>SUMPRODUCT(T8:X12,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="19"/>
+        <v>167662</v>
       </c>
       <c r="BP10" s="4">
-        <f>SUMPRODUCT(U8:Y12,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="20"/>
+        <v>72491</v>
       </c>
       <c r="BQ10" s="4">
-        <f>SUMPRODUCT(V8:Z12,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>19395</v>
       </c>
       <c r="BR10" s="4">
-        <f>SUMPRODUCT(W8:AA12,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="22"/>
+        <v>1652</v>
       </c>
       <c r="BS10" s="4">
-        <f>SUMPRODUCT(X8:AB12,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="23"/>
+        <v>194</v>
       </c>
     </row>
-    <row r="11" ht="39.6" customHeight="1">
-      <c r="A11" s="5" t="n">
+    <row r="11" spans="1:76" ht="39.6" customHeight="1">
+      <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5" t="n">
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
         <v>7</v>
       </c>
-      <c r="D11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5" t="n">
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
         <v>3</v>
       </c>
-      <c r="F11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5" t="n">
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
         <v>2</v>
       </c>
-      <c r="H11" s="5" t="n">
+      <c r="H11" s="5">
         <v>1</v>
       </c>
-      <c r="I11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5" t="n">
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
         <v>10</v>
       </c>
-      <c r="L11" s="5" t="n">
+      <c r="L11" s="5">
         <v>27</v>
       </c>
-      <c r="M11" s="5" t="n">
+      <c r="M11" s="5">
         <v>49</v>
       </c>
-      <c r="N11" s="5" t="n">
+      <c r="N11" s="5">
         <v>22</v>
       </c>
-      <c r="O11" s="5" t="n">
+      <c r="O11" s="5">
         <v>51</v>
       </c>
-      <c r="P11" s="5" t="n">
+      <c r="P11" s="5">
         <v>61</v>
       </c>
-      <c r="Q11" s="5" t="n">
+      <c r="Q11" s="5">
         <v>57</v>
       </c>
-      <c r="R11" s="5" t="n">
+      <c r="R11" s="5">
         <v>60</v>
       </c>
-      <c r="S11" s="5" t="n">
+      <c r="S11" s="5">
         <v>12</v>
       </c>
-      <c r="T11" s="5" t="n">
+      <c r="T11" s="5">
         <v>243</v>
       </c>
-      <c r="U11" s="5" t="n">
+      <c r="U11" s="5">
         <v>255</v>
       </c>
-      <c r="V11" s="5" t="n">
+      <c r="V11" s="5">
         <v>111</v>
       </c>
-      <c r="W11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" s="5" t="n">
+      <c r="W11" s="5">
+        <v>0</v>
+      </c>
+      <c r="X11" s="5">
         <v>12</v>
       </c>
-      <c r="Y11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="6" t="n">
+      <c r="Y11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="6">
         <v>13</v>
       </c>
-      <c r="AI11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="6" t="n">
+      <c r="AI11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="6">
         <v>150</v>
       </c>
-      <c r="AK11" s="6" t="n">
+      <c r="AK11" s="6">
         <v>250</v>
       </c>
-      <c r="AL11" s="6" t="n">
+      <c r="AL11" s="6">
         <v>220</v>
       </c>
       <c r="AV11" s="4">
-        <f>SUMPRODUCT(A9:E13,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>6314</v>
       </c>
       <c r="AW11" s="4">
-        <f>SUMPRODUCT(B9:F13,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>3994</v>
       </c>
       <c r="AX11" s="4">
-        <f>SUMPRODUCT(C9:G13,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>83586</v>
       </c>
       <c r="AY11" s="4">
-        <f>SUMPRODUCT(D9:H13,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>170830</v>
       </c>
       <c r="AZ11" s="4">
-        <f>SUMPRODUCT(E9:I13,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>251278</v>
       </c>
       <c r="BA11" s="4">
-        <f>SUMPRODUCT(F9:J13,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>339603</v>
       </c>
       <c r="BB11" s="4">
-        <f>SUMPRODUCT(G9:K13,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>441691</v>
       </c>
       <c r="BC11" s="4">
-        <f>SUMPRODUCT(H9:L13,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>485011</v>
       </c>
       <c r="BD11" s="4">
-        <f>SUMPRODUCT(I9:M13,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>522391</v>
       </c>
       <c r="BE11" s="4">
-        <f>SUMPRODUCT(J9:N13,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="9"/>
+        <v>549360</v>
       </c>
       <c r="BF11" s="4">
-        <f>SUMPRODUCT(K9:O13,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>571563</v>
       </c>
       <c r="BG11" s="4">
         <f>SUMPRODUCT(L9:P13,$AH$8:$AL$12)</f>
-        <v/>
+        <v>594601</v>
       </c>
       <c r="BH11" s="4">
-        <f>SUMPRODUCT(M9:Q13,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>594224</v>
       </c>
       <c r="BI11" s="4">
-        <f>SUMPRODUCT(N9:R13,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>592608</v>
       </c>
       <c r="BJ11" s="4">
-        <f>SUMPRODUCT(O9:S13,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>599166</v>
       </c>
       <c r="BK11" s="4">
-        <f>SUMPRODUCT(P9:T13,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="15"/>
+        <v>761636</v>
       </c>
       <c r="BL11" s="4">
-        <f>SUMPRODUCT(Q9:U13,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>915387</v>
       </c>
       <c r="BM11" s="4">
-        <f>SUMPRODUCT(R9:V13,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>771505</v>
       </c>
       <c r="BN11" s="4">
-        <f>SUMPRODUCT(S9:W13,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="18"/>
+        <v>485048</v>
       </c>
       <c r="BO11" s="4">
-        <f>SUMPRODUCT(T9:X13,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="19"/>
+        <v>296570</v>
       </c>
       <c r="BP11" s="4">
-        <f>SUMPRODUCT(U9:Y13,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="20"/>
+        <v>171853</v>
       </c>
       <c r="BQ11" s="4">
-        <f>SUMPRODUCT(V9:Z13,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>53966</v>
       </c>
       <c r="BR11" s="4">
-        <f>SUMPRODUCT(W9:AA13,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="22"/>
+        <v>4006</v>
       </c>
       <c r="BS11" s="4">
-        <f>SUMPRODUCT(X9:AB13,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="23"/>
+        <v>738</v>
       </c>
     </row>
-    <row r="12" ht="39.6" customHeight="1">
-      <c r="A12" s="5" t="n">
+    <row r="12" spans="1:76" ht="39.6" customHeight="1">
+      <c r="A12" s="5">
         <v>1</v>
       </c>
-      <c r="B12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5" t="n">
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
         <v>6</v>
       </c>
-      <c r="D12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5" t="n">
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
         <v>1</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="5">
         <v>3</v>
       </c>
-      <c r="G12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5" t="n">
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
         <v>3</v>
       </c>
-      <c r="I12" s="5" t="n">
+      <c r="I12" s="5">
         <v>1</v>
       </c>
-      <c r="J12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5" t="n">
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
         <v>3</v>
       </c>
-      <c r="M12" s="5" t="n">
+      <c r="M12" s="5">
         <v>13</v>
       </c>
-      <c r="N12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="5" t="n">
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
         <v>11</v>
       </c>
-      <c r="P12" s="5" t="n">
+      <c r="P12" s="5">
         <v>14</v>
       </c>
-      <c r="Q12" s="5" t="n">
+      <c r="Q12" s="5">
         <v>13</v>
       </c>
-      <c r="R12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="5" t="n">
+      <c r="R12" s="5">
+        <v>0</v>
+      </c>
+      <c r="S12" s="5">
         <v>82</v>
       </c>
-      <c r="T12" s="5" t="n">
+      <c r="T12" s="5">
         <v>250</v>
       </c>
-      <c r="U12" s="5" t="n">
+      <c r="U12" s="5">
         <v>195</v>
       </c>
-      <c r="V12" s="5" t="n">
+      <c r="V12" s="5">
         <v>11</v>
       </c>
-      <c r="W12" s="5" t="n">
+      <c r="W12" s="5">
         <v>10</v>
       </c>
-      <c r="X12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="6" t="n">
+      <c r="X12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="6">
         <v>90</v>
       </c>
-      <c r="AJ12" s="6" t="n">
+      <c r="AJ12" s="6">
         <v>255</v>
       </c>
-      <c r="AK12" s="6" t="n">
+      <c r="AK12" s="6">
         <v>255</v>
       </c>
-      <c r="AL12" s="6" t="n">
+      <c r="AL12" s="6">
         <v>12</v>
       </c>
       <c r="AV12" s="4">
-        <f>SUMPRODUCT(A10:E14,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>7747</v>
       </c>
       <c r="AW12" s="4">
-        <f>SUMPRODUCT(B10:F14,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>6545</v>
       </c>
       <c r="AX12" s="4">
-        <f>SUMPRODUCT(C10:G14,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>31108</v>
       </c>
       <c r="AY12" s="4">
-        <f>SUMPRODUCT(D10:H14,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>54808</v>
       </c>
       <c r="AZ12" s="4">
-        <f>SUMPRODUCT(E10:I14,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>73313</v>
       </c>
       <c r="BA12" s="4">
-        <f>SUMPRODUCT(F10:J14,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>99738</v>
       </c>
       <c r="BB12" s="4">
-        <f>SUMPRODUCT(G10:K14,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>143338</v>
       </c>
       <c r="BC12" s="4">
-        <f>SUMPRODUCT(H10:L14,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>180645</v>
       </c>
       <c r="BD12" s="4">
-        <f>SUMPRODUCT(I10:M14,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>226813</v>
       </c>
       <c r="BE12" s="4">
-        <f>SUMPRODUCT(J10:N14,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="9"/>
+        <v>268160</v>
       </c>
       <c r="BF12" s="4">
-        <f>SUMPRODUCT(K10:O14,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>315761</v>
       </c>
       <c r="BG12" s="4">
-        <f>SUMPRODUCT(L10:P14,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>357584</v>
       </c>
       <c r="BH12" s="4">
-        <f>SUMPRODUCT(M10:Q14,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>374851</v>
       </c>
       <c r="BI12" s="4">
-        <f>SUMPRODUCT(N10:R14,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>377772</v>
       </c>
       <c r="BJ12" s="4">
-        <f>SUMPRODUCT(O10:S14,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>474094</v>
       </c>
       <c r="BK12" s="4">
-        <f>SUMPRODUCT(P10:T14,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="15"/>
+        <v>706450</v>
       </c>
       <c r="BL12" s="4">
-        <f>SUMPRODUCT(Q10:U14,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>823007</v>
       </c>
       <c r="BM12" s="4">
-        <f>SUMPRODUCT(R10:V14,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>647077</v>
       </c>
       <c r="BN12" s="4">
-        <f>SUMPRODUCT(S10:W14,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="18"/>
+        <v>427816</v>
       </c>
       <c r="BO12" s="4">
-        <f>SUMPRODUCT(T10:X14,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="19"/>
+        <v>332945</v>
       </c>
       <c r="BP12" s="4">
-        <f>SUMPRODUCT(U10:Y14,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="20"/>
+        <v>201248</v>
       </c>
       <c r="BQ12" s="4">
-        <f>SUMPRODUCT(V10:Z14,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>67632</v>
       </c>
       <c r="BR12" s="4">
-        <f>SUMPRODUCT(W10:AA14,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="22"/>
+        <v>4836</v>
       </c>
       <c r="BS12" s="4">
-        <f>SUMPRODUCT(X10:AB14,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="23"/>
+        <v>3631</v>
       </c>
     </row>
-    <row r="13" ht="39.6" customHeight="1">
-      <c r="A13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" s="5" t="n">
+    <row r="13" spans="1:76" ht="39.6" customHeight="1">
+      <c r="A13" s="5">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5" t="n">
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
         <v>10</v>
       </c>
-      <c r="I13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5" t="n">
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
         <v>8</v>
       </c>
-      <c r="K13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="5" t="n">
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
         <v>6</v>
       </c>
-      <c r="M13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="5" t="n">
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>0</v>
+      </c>
+      <c r="R13" s="5">
         <v>11</v>
       </c>
-      <c r="S13" s="5" t="n">
+      <c r="S13" s="5">
         <v>232</v>
       </c>
-      <c r="T13" s="5" t="n">
+      <c r="T13" s="5">
         <v>255</v>
       </c>
-      <c r="U13" s="5" t="n">
+      <c r="U13" s="5">
         <v>93</v>
       </c>
-      <c r="V13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" s="5" t="n">
+      <c r="V13" s="5">
+        <v>0</v>
+      </c>
+      <c r="W13" s="5">
         <v>12</v>
       </c>
-      <c r="X13" s="5" t="n">
+      <c r="X13" s="5">
         <v>7</v>
       </c>
-      <c r="Y13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="5" t="n">
+      <c r="Y13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="5">
         <v>0</v>
       </c>
       <c r="AV13" s="4">
-        <f>SUMPRODUCT(A11:E15,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>8216</v>
       </c>
       <c r="AW13" s="4">
-        <f>SUMPRODUCT(B11:F15,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>9124</v>
       </c>
       <c r="AX13" s="4">
-        <f>SUMPRODUCT(C11:G15,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>8611</v>
       </c>
       <c r="AY13" s="4">
-        <f>SUMPRODUCT(D11:H15,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>8034</v>
       </c>
       <c r="AZ13" s="4">
-        <f>SUMPRODUCT(E11:I15,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>7529</v>
       </c>
       <c r="BA13" s="4">
-        <f>SUMPRODUCT(F11:J15,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>8322</v>
       </c>
       <c r="BB13" s="4">
-        <f>SUMPRODUCT(G11:K15,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>10939</v>
       </c>
       <c r="BC13" s="4">
-        <f>SUMPRODUCT(H11:L15,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>16210</v>
       </c>
       <c r="BD13" s="4">
-        <f>SUMPRODUCT(I11:M15,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>29072</v>
       </c>
       <c r="BE13" s="4">
-        <f>SUMPRODUCT(J11:N15,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="9"/>
+        <v>34406</v>
       </c>
       <c r="BF13" s="4">
-        <f>SUMPRODUCT(K11:O15,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>51059</v>
       </c>
       <c r="BG13" s="4">
-        <f>SUMPRODUCT(L11:P15,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>67273</v>
       </c>
       <c r="BH13" s="4">
-        <f>SUMPRODUCT(M11:Q15,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>75451</v>
       </c>
       <c r="BI13" s="4">
-        <f>SUMPRODUCT(N11:R15,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>121370</v>
       </c>
       <c r="BJ13" s="4">
-        <f>SUMPRODUCT(O11:S15,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>321098</v>
       </c>
       <c r="BK13" s="4">
-        <f>SUMPRODUCT(P11:T15,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="15"/>
+        <v>588599</v>
       </c>
       <c r="BL13" s="4">
-        <f>SUMPRODUCT(Q11:U15,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>584873</v>
       </c>
       <c r="BM13" s="4">
-        <f>SUMPRODUCT(R11:V15,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>417775</v>
       </c>
       <c r="BN13" s="4">
-        <f>SUMPRODUCT(S11:W15,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="18"/>
+        <v>318168</v>
       </c>
       <c r="BO13" s="4">
-        <f>SUMPRODUCT(T11:X15,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="19"/>
+        <v>289814</v>
       </c>
       <c r="BP13" s="4">
-        <f>SUMPRODUCT(U11:Y15,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="20"/>
+        <v>156119</v>
       </c>
       <c r="BQ13" s="4">
-        <f>SUMPRODUCT(V11:Z15,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>37757</v>
       </c>
       <c r="BR13" s="4">
-        <f>SUMPRODUCT(W11:AA15,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="22"/>
+        <v>5759</v>
       </c>
       <c r="BS13" s="4">
-        <f>SUMPRODUCT(X11:AB15,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="23"/>
+        <v>3013</v>
       </c>
     </row>
-    <row r="14" ht="39.6" customHeight="1">
-      <c r="A14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" s="5" t="n">
+    <row r="14" spans="1:76" ht="39.6" customHeight="1">
+      <c r="A14" s="5">
+        <v>0</v>
+      </c>
+      <c r="B14" s="5">
         <v>9</v>
       </c>
-      <c r="C14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5" t="n">
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
         <v>1</v>
       </c>
-      <c r="E14" s="5" t="n">
+      <c r="E14" s="5">
         <v>7</v>
       </c>
-      <c r="F14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5" t="n">
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
         <v>14</v>
       </c>
-      <c r="K14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5" t="n">
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
         <v>7</v>
       </c>
-      <c r="O14" s="5" t="n">
+      <c r="O14" s="5">
         <v>11</v>
       </c>
-      <c r="P14" s="5" t="n">
+      <c r="P14" s="5">
         <v>6</v>
       </c>
-      <c r="Q14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" s="5" t="n">
+      <c r="Q14" s="5">
+        <v>0</v>
+      </c>
+      <c r="R14" s="5">
         <v>131</v>
       </c>
-      <c r="S14" s="5" t="n">
+      <c r="S14" s="5">
         <v>255</v>
       </c>
-      <c r="T14" s="5" t="n">
+      <c r="T14" s="5">
         <v>236</v>
       </c>
-      <c r="U14" s="5" t="n">
+      <c r="U14" s="5">
         <v>29</v>
       </c>
-      <c r="V14" s="5" t="n">
+      <c r="V14" s="5">
         <v>8</v>
       </c>
-      <c r="W14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="5" t="n">
+      <c r="W14" s="5">
+        <v>0</v>
+      </c>
+      <c r="X14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="5">
         <v>0</v>
       </c>
       <c r="AV14" s="4">
-        <f>SUMPRODUCT(A12:E16,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>10765</v>
       </c>
       <c r="AW14" s="4">
-        <f>SUMPRODUCT(B12:F16,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>9317</v>
       </c>
       <c r="AX14" s="4">
-        <f>SUMPRODUCT(C12:G16,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>5086</v>
       </c>
       <c r="AY14" s="4">
-        <f>SUMPRODUCT(D12:H16,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>7258</v>
       </c>
       <c r="AZ14" s="4">
-        <f>SUMPRODUCT(E12:I16,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>7922</v>
       </c>
       <c r="BA14" s="4">
-        <f>SUMPRODUCT(F12:J16,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>12697</v>
       </c>
       <c r="BB14" s="4">
-        <f>SUMPRODUCT(G12:K16,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>10884</v>
       </c>
       <c r="BC14" s="4">
-        <f>SUMPRODUCT(H12:L16,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>10096</v>
       </c>
       <c r="BD14" s="4">
-        <f>SUMPRODUCT(I12:M16,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>10407</v>
       </c>
       <c r="BE14" s="4">
-        <f>SUMPRODUCT(J12:N16,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="9"/>
+        <v>13965</v>
       </c>
       <c r="BF14" s="4">
-        <f>SUMPRODUCT(K12:O16,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>16364</v>
       </c>
       <c r="BG14" s="4">
-        <f>SUMPRODUCT(L12:P16,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>18601</v>
       </c>
       <c r="BH14" s="4">
-        <f>SUMPRODUCT(M12:Q16,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>30800</v>
       </c>
       <c r="BI14" s="4">
-        <f>SUMPRODUCT(N12:R16,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>153570</v>
       </c>
       <c r="BJ14" s="4">
-        <f>SUMPRODUCT(O12:S16,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>415375</v>
       </c>
       <c r="BK14" s="4">
-        <f>SUMPRODUCT(P12:T16,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="15"/>
+        <v>578141</v>
       </c>
       <c r="BL14" s="4">
-        <f>SUMPRODUCT(Q12:U16,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>479659</v>
       </c>
       <c r="BM14" s="4">
-        <f>SUMPRODUCT(R12:V16,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>332909</v>
       </c>
       <c r="BN14" s="4">
-        <f>SUMPRODUCT(S12:W16,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="18"/>
+        <v>306063</v>
       </c>
       <c r="BO14" s="4">
-        <f>SUMPRODUCT(T12:X16,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="19"/>
+        <v>218224</v>
       </c>
       <c r="BP14" s="4">
-        <f>SUMPRODUCT(U12:Y16,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="20"/>
+        <v>87467</v>
       </c>
       <c r="BQ14" s="4">
-        <f>SUMPRODUCT(V12:Z16,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>12282</v>
       </c>
       <c r="BR14" s="4">
-        <f>SUMPRODUCT(W12:AA16,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="22"/>
+        <v>8406</v>
       </c>
       <c r="BS14" s="4">
-        <f>SUMPRODUCT(X12:AB16,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="23"/>
+        <v>1785</v>
       </c>
     </row>
-    <row r="15" ht="39.6" customHeight="1">
-      <c r="A15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5" t="n">
+    <row r="15" spans="1:76" ht="39.6" customHeight="1">
+      <c r="A15" s="5">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
         <v>8</v>
       </c>
-      <c r="F15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5" t="n">
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
         <v>6</v>
       </c>
-      <c r="H15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="5" t="n">
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
         <v>4</v>
       </c>
-      <c r="K15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="5" t="n">
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
         <v>6</v>
       </c>
-      <c r="M15" s="5" t="n">
+      <c r="M15" s="5">
         <v>3</v>
       </c>
-      <c r="N15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" s="5" t="n">
+      <c r="N15" s="5">
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
         <v>2</v>
       </c>
-      <c r="P15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="5" t="n">
+      <c r="P15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="5">
         <v>60</v>
       </c>
-      <c r="R15" s="5" t="n">
+      <c r="R15" s="5">
         <v>250</v>
       </c>
-      <c r="S15" s="5" t="n">
+      <c r="S15" s="5">
         <v>251</v>
       </c>
-      <c r="T15" s="5" t="n">
+      <c r="T15" s="5">
         <v>60</v>
       </c>
-      <c r="U15" s="5" t="n">
+      <c r="U15" s="5">
         <v>4</v>
       </c>
-      <c r="V15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" s="5" t="n">
+      <c r="V15" s="5">
+        <v>0</v>
+      </c>
+      <c r="W15" s="5">
         <v>27</v>
       </c>
-      <c r="X15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="5" t="n">
+      <c r="X15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="5">
         <v>0</v>
       </c>
       <c r="AV15" s="4">
-        <f>SUMPRODUCT(A13:E17,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>9957</v>
       </c>
       <c r="AW15" s="4">
-        <f>SUMPRODUCT(B13:F17,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>8199</v>
       </c>
       <c r="AX15" s="4">
-        <f>SUMPRODUCT(C13:G17,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>4909</v>
       </c>
       <c r="AY15" s="4">
-        <f>SUMPRODUCT(D13:H17,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>8322</v>
       </c>
       <c r="AZ15" s="4">
-        <f>SUMPRODUCT(E13:I17,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>6635</v>
       </c>
       <c r="BA15" s="4">
-        <f>SUMPRODUCT(F13:J17,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>10991</v>
       </c>
       <c r="BB15" s="4">
-        <f>SUMPRODUCT(G13:K17,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>10188</v>
       </c>
       <c r="BC15" s="4">
-        <f>SUMPRODUCT(H13:L17,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>14129</v>
       </c>
       <c r="BD15" s="4">
-        <f>SUMPRODUCT(I13:M17,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>15221</v>
       </c>
       <c r="BE15" s="4">
-        <f>SUMPRODUCT(J13:N17,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="9"/>
+        <v>14091</v>
       </c>
       <c r="BF15" s="4">
-        <f>SUMPRODUCT(K13:O17,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>9704</v>
       </c>
       <c r="BG15" s="4">
-        <f>SUMPRODUCT(L13:P17,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>9819</v>
       </c>
       <c r="BH15" s="4">
-        <f>SUMPRODUCT(M13:Q17,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>57134</v>
       </c>
       <c r="BI15" s="4">
-        <f>SUMPRODUCT(N13:R17,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>266697</v>
       </c>
       <c r="BJ15" s="4">
-        <f>SUMPRODUCT(O13:S17,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>531848</v>
       </c>
       <c r="BK15" s="4">
-        <f>SUMPRODUCT(P13:T17,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="15"/>
+        <v>546335</v>
       </c>
       <c r="BL15" s="4">
-        <f>SUMPRODUCT(Q13:U17,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>404820</v>
       </c>
       <c r="BM15" s="4">
-        <f>SUMPRODUCT(R13:V17,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>331731</v>
       </c>
       <c r="BN15" s="4">
-        <f>SUMPRODUCT(S13:W17,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="18"/>
+        <v>292868</v>
       </c>
       <c r="BO15" s="4">
-        <f>SUMPRODUCT(T13:X17,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="19"/>
+        <v>167638</v>
       </c>
       <c r="BP15" s="4">
-        <f>SUMPRODUCT(U13:Y17,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="20"/>
+        <v>40448</v>
       </c>
       <c r="BQ15" s="4">
-        <f>SUMPRODUCT(V13:Z17,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>9614</v>
       </c>
       <c r="BR15" s="4">
-        <f>SUMPRODUCT(W13:AA17,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="22"/>
+        <v>5398</v>
       </c>
       <c r="BS15" s="4">
-        <f>SUMPRODUCT(X13:AB17,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="23"/>
+        <v>1797</v>
       </c>
     </row>
-    <row r="16" ht="39.6" customHeight="1">
-      <c r="A16" s="5" t="n">
+    <row r="16" spans="1:76" ht="39.6" customHeight="1">
+      <c r="A16" s="5">
         <v>4</v>
       </c>
-      <c r="B16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="5" t="n">
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
         <v>11</v>
       </c>
-      <c r="D16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5" t="n">
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
         <v>5</v>
       </c>
-      <c r="H16" s="5" t="n">
+      <c r="H16" s="5">
         <v>4</v>
       </c>
-      <c r="I16" s="5" t="n">
+      <c r="I16" s="5">
         <v>2</v>
       </c>
-      <c r="J16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="5" t="n">
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
         <v>11</v>
       </c>
-      <c r="N16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" s="5" t="n">
+      <c r="N16" s="5">
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
         <v>5</v>
       </c>
-      <c r="P16" s="5" t="n">
+      <c r="P16" s="5">
         <v>1</v>
       </c>
-      <c r="Q16" s="5" t="n">
+      <c r="Q16" s="5">
         <v>134</v>
       </c>
-      <c r="R16" s="5" t="n">
+      <c r="R16" s="5">
         <v>248</v>
       </c>
-      <c r="S16" s="5" t="n">
+      <c r="S16" s="5">
         <v>195</v>
       </c>
-      <c r="T16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" s="5" t="n">
+      <c r="T16" s="5">
+        <v>0</v>
+      </c>
+      <c r="U16" s="5">
         <v>10</v>
       </c>
-      <c r="V16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" s="5" t="n">
+      <c r="V16" s="5">
+        <v>0</v>
+      </c>
+      <c r="W16" s="5">
+        <v>0</v>
+      </c>
+      <c r="X16" s="5">
         <v>9</v>
       </c>
-      <c r="Y16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="5" t="n">
+      <c r="Y16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="5">
         <v>0</v>
       </c>
       <c r="AV16" s="4">
-        <f>SUMPRODUCT(A14:E18,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>6360</v>
       </c>
       <c r="AW16" s="4">
-        <f>SUMPRODUCT(B14:F18,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>6372</v>
       </c>
       <c r="AX16" s="4">
-        <f>SUMPRODUCT(C14:G18,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>6962</v>
       </c>
       <c r="AY16" s="4">
-        <f>SUMPRODUCT(D14:H18,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>7690</v>
       </c>
       <c r="AZ16" s="4">
-        <f>SUMPRODUCT(E14:I18,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>7500</v>
       </c>
       <c r="BA16" s="4">
-        <f>SUMPRODUCT(F14:J18,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>8483</v>
       </c>
       <c r="BB16" s="4">
-        <f>SUMPRODUCT(G14:K18,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>10011</v>
       </c>
       <c r="BC16" s="4">
-        <f>SUMPRODUCT(H14:L18,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>9956</v>
       </c>
       <c r="BD16" s="4">
-        <f>SUMPRODUCT(I14:M18,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>15457</v>
       </c>
       <c r="BE16" s="4">
-        <f>SUMPRODUCT(J14:N18,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="9"/>
+        <v>15305</v>
       </c>
       <c r="BF16" s="4">
-        <f>SUMPRODUCT(K14:O18,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>13881</v>
       </c>
       <c r="BG16" s="4">
-        <f>SUMPRODUCT(L14:P18,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>18031</v>
       </c>
       <c r="BH16" s="4">
-        <f>SUMPRODUCT(M14:Q18,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>143394</v>
       </c>
       <c r="BI16" s="4">
-        <f>SUMPRODUCT(N14:R18,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>423042</v>
       </c>
       <c r="BJ16" s="4">
-        <f>SUMPRODUCT(O14:S18,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>581212</v>
       </c>
       <c r="BK16" s="4">
-        <f>SUMPRODUCT(P14:T18,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="15"/>
+        <v>487417</v>
       </c>
       <c r="BL16" s="4">
-        <f>SUMPRODUCT(Q14:U18,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>359005</v>
       </c>
       <c r="BM16" s="4">
-        <f>SUMPRODUCT(R14:V18,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>318150</v>
       </c>
       <c r="BN16" s="4">
-        <f>SUMPRODUCT(S14:W18,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="18"/>
+        <v>219313</v>
       </c>
       <c r="BO16" s="4">
-        <f>SUMPRODUCT(T14:X18,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="19"/>
+        <v>93472</v>
       </c>
       <c r="BP16" s="4">
-        <f>SUMPRODUCT(U14:Y18,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="20"/>
+        <v>21817</v>
       </c>
       <c r="BQ16" s="4">
-        <f>SUMPRODUCT(V14:Z18,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>10801</v>
       </c>
       <c r="BR16" s="4">
-        <f>SUMPRODUCT(W14:AA18,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="22"/>
+        <v>7555</v>
       </c>
       <c r="BS16" s="4">
-        <f>SUMPRODUCT(X14:AB18,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="23"/>
+        <v>223</v>
       </c>
     </row>
-    <row r="17" ht="39.6" customHeight="1">
-      <c r="A17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5" t="n">
+    <row r="17" spans="1:71" ht="39.6" customHeight="1">
+      <c r="A17" s="5">
+        <v>0</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
         <v>3</v>
       </c>
-      <c r="J17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="5" t="n">
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
         <v>11</v>
       </c>
-      <c r="L17" s="5" t="n">
+      <c r="L17" s="5">
         <v>3</v>
       </c>
-      <c r="M17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="5" t="n">
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0</v>
+      </c>
+      <c r="P17" s="5">
         <v>10</v>
       </c>
-      <c r="Q17" s="5" t="n">
+      <c r="Q17" s="5">
         <v>205</v>
       </c>
-      <c r="R17" s="5" t="n">
+      <c r="R17" s="5">
         <v>250</v>
       </c>
-      <c r="S17" s="5" t="n">
+      <c r="S17" s="5">
         <v>59</v>
       </c>
-      <c r="T17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" s="5" t="n">
+      <c r="T17" s="5">
+        <v>0</v>
+      </c>
+      <c r="U17" s="5">
+        <v>0</v>
+      </c>
+      <c r="V17" s="5">
         <v>1</v>
       </c>
-      <c r="W17" s="5" t="n">
+      <c r="W17" s="5">
         <v>1</v>
       </c>
-      <c r="X17" s="5" t="n">
+      <c r="X17" s="5">
         <v>4</v>
       </c>
-      <c r="Y17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="5" t="n">
+      <c r="Y17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="5">
         <v>0</v>
       </c>
       <c r="AV17" s="4">
-        <f>SUMPRODUCT(A15:E19,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>5833</v>
       </c>
       <c r="AW17" s="4">
-        <f>SUMPRODUCT(B15:F19,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>4725</v>
       </c>
       <c r="AX17" s="4">
-        <f>SUMPRODUCT(C15:G19,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>7498</v>
       </c>
       <c r="AY17" s="4">
-        <f>SUMPRODUCT(D15:H19,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>5615</v>
       </c>
       <c r="AZ17" s="4">
-        <f>SUMPRODUCT(E15:I19,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>7804</v>
       </c>
       <c r="BA17" s="4">
-        <f>SUMPRODUCT(F15:J19,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>7116</v>
       </c>
       <c r="BB17" s="4">
-        <f>SUMPRODUCT(G15:K19,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>12216</v>
       </c>
       <c r="BC17" s="4">
-        <f>SUMPRODUCT(H15:L19,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>14149</v>
       </c>
       <c r="BD17" s="4">
-        <f>SUMPRODUCT(I15:M19,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>12334</v>
       </c>
       <c r="BE17" s="4">
-        <f>SUMPRODUCT(J15:N19,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="9"/>
+        <v>14995</v>
       </c>
       <c r="BF17" s="4">
-        <f>SUMPRODUCT(K15:O19,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>16194</v>
       </c>
       <c r="BG17" s="4">
-        <f>SUMPRODUCT(L15:P19,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>60452</v>
       </c>
       <c r="BH17" s="4">
-        <f>SUMPRODUCT(M15:Q19,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>280365</v>
       </c>
       <c r="BI17" s="4">
-        <f>SUMPRODUCT(N15:R19,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>544288</v>
       </c>
       <c r="BJ17" s="4">
-        <f>SUMPRODUCT(O15:S19,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>552026</v>
       </c>
       <c r="BK17" s="4">
-        <f>SUMPRODUCT(P15:T19,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="15"/>
+        <v>389622</v>
       </c>
       <c r="BL17" s="4">
-        <f>SUMPRODUCT(Q15:U19,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>321201</v>
       </c>
       <c r="BM17" s="4">
-        <f>SUMPRODUCT(R15:V19,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>260861</v>
       </c>
       <c r="BN17" s="4">
-        <f>SUMPRODUCT(S15:W19,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="18"/>
+        <v>139925</v>
       </c>
       <c r="BO17" s="4">
-        <f>SUMPRODUCT(T15:X19,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="19"/>
+        <v>31416</v>
       </c>
       <c r="BP17" s="4">
-        <f>SUMPRODUCT(U15:Y19,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="20"/>
+        <v>15859</v>
       </c>
       <c r="BQ17" s="4">
-        <f>SUMPRODUCT(V15:Z19,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>10284</v>
       </c>
       <c r="BR17" s="4">
-        <f>SUMPRODUCT(W15:AA19,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="22"/>
+        <v>9156</v>
       </c>
       <c r="BS17" s="4">
-        <f>SUMPRODUCT(X15:AB19,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="23"/>
+        <v>2436</v>
       </c>
     </row>
-    <row r="18" ht="39.6" customHeight="1">
-      <c r="A18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="5" t="n">
+    <row r="18" spans="1:71" ht="39.6" customHeight="1">
+      <c r="A18" s="5">
+        <v>0</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
         <v>4</v>
       </c>
-      <c r="J18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="5" t="n">
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
         <v>14</v>
       </c>
-      <c r="M18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5" t="n">
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
         <v>15</v>
       </c>
-      <c r="O18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" s="5" t="n">
+      <c r="O18" s="5">
+        <v>0</v>
+      </c>
+      <c r="P18" s="5">
         <v>135</v>
       </c>
-      <c r="Q18" s="5" t="n">
+      <c r="Q18" s="5">
         <v>254</v>
       </c>
-      <c r="R18" s="5" t="n">
+      <c r="R18" s="5">
         <v>169</v>
       </c>
-      <c r="S18" s="5" t="n">
+      <c r="S18" s="5">
         <v>16</v>
       </c>
-      <c r="T18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" s="5" t="n">
+      <c r="T18" s="5">
+        <v>0</v>
+      </c>
+      <c r="U18" s="5">
         <v>3</v>
       </c>
-      <c r="V18" s="5" t="n">
+      <c r="V18" s="5">
         <v>3</v>
       </c>
-      <c r="W18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" s="5" t="n">
+      <c r="W18" s="5">
+        <v>0</v>
+      </c>
+      <c r="X18" s="5">
         <v>5</v>
       </c>
-      <c r="Y18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="5" t="n">
+      <c r="Y18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="5">
         <v>0</v>
       </c>
       <c r="AV18" s="4">
-        <f>SUMPRODUCT(A16:E20,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>3589</v>
       </c>
       <c r="AW18" s="4">
-        <f>SUMPRODUCT(B16:F20,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>2585</v>
       </c>
       <c r="AX18" s="4">
-        <f>SUMPRODUCT(C16:G20,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>3895</v>
       </c>
       <c r="AY18" s="4">
-        <f>SUMPRODUCT(D16:H20,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>2204</v>
       </c>
       <c r="AZ18" s="4">
-        <f>SUMPRODUCT(E16:I20,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>4478</v>
       </c>
       <c r="BA18" s="4">
-        <f>SUMPRODUCT(F16:J20,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>8193</v>
       </c>
       <c r="BB18" s="4">
-        <f>SUMPRODUCT(G16:K20,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>10501</v>
       </c>
       <c r="BC18" s="4">
-        <f>SUMPRODUCT(H16:L20,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>12049</v>
       </c>
       <c r="BD18" s="4">
-        <f>SUMPRODUCT(I16:M20,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>19269</v>
       </c>
       <c r="BE18" s="4">
-        <f>SUMPRODUCT(J16:N20,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="9"/>
+        <v>20586</v>
       </c>
       <c r="BF18" s="4">
-        <f>SUMPRODUCT(K16:O20,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>36690</v>
       </c>
       <c r="BG18" s="4">
-        <f>SUMPRODUCT(L16:P20,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>181076</v>
       </c>
       <c r="BH18" s="4">
-        <f>SUMPRODUCT(M16:Q20,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>444422</v>
       </c>
       <c r="BI18" s="4">
-        <f>SUMPRODUCT(N16:R20,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>559160</v>
       </c>
       <c r="BJ18" s="4">
-        <f>SUMPRODUCT(O16:S20,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>444119</v>
       </c>
       <c r="BK18" s="4">
-        <f>SUMPRODUCT(P16:T20,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="15"/>
+        <v>314922</v>
       </c>
       <c r="BL18" s="4">
-        <f>SUMPRODUCT(Q16:U20,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>285183</v>
       </c>
       <c r="BM18" s="4">
-        <f>SUMPRODUCT(R16:V20,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>195121</v>
       </c>
       <c r="BN18" s="4">
-        <f>SUMPRODUCT(S16:W20,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="18"/>
+        <v>68691</v>
       </c>
       <c r="BO18" s="4">
-        <f>SUMPRODUCT(T16:X20,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="19"/>
+        <v>10099</v>
       </c>
       <c r="BP18" s="4">
-        <f>SUMPRODUCT(U16:Y20,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="20"/>
+        <v>8758</v>
       </c>
       <c r="BQ18" s="4">
-        <f>SUMPRODUCT(V16:Z20,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>4416</v>
       </c>
       <c r="BR18" s="4">
-        <f>SUMPRODUCT(W16:AA20,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="22"/>
+        <v>3505</v>
       </c>
       <c r="BS18" s="4">
-        <f>SUMPRODUCT(X16:AB20,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="23"/>
+        <v>3314</v>
       </c>
     </row>
-    <row r="19" ht="39.6" customHeight="1">
-      <c r="A19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="5" t="n">
+    <row r="19" spans="1:71" ht="39.6" customHeight="1">
+      <c r="A19" s="5">
+        <v>0</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
         <v>14</v>
       </c>
-      <c r="K19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="5" t="n">
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
         <v>13</v>
       </c>
-      <c r="N19" s="5" t="n">
+      <c r="N19" s="5">
         <v>6</v>
       </c>
-      <c r="O19" s="5" t="n">
+      <c r="O19" s="5">
         <v>51</v>
       </c>
-      <c r="P19" s="5" t="n">
+      <c r="P19" s="5">
         <v>254</v>
       </c>
-      <c r="Q19" s="5" t="n">
+      <c r="Q19" s="5">
         <v>246</v>
       </c>
-      <c r="R19" s="5" t="n">
+      <c r="R19" s="5">
         <v>69</v>
       </c>
-      <c r="S19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" s="5" t="n">
+      <c r="S19" s="5">
+        <v>0</v>
+      </c>
+      <c r="T19" s="5">
+        <v>0</v>
+      </c>
+      <c r="U19" s="5">
         <v>4</v>
       </c>
-      <c r="V19" s="5" t="n">
+      <c r="V19" s="5">
         <v>6</v>
       </c>
-      <c r="W19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" s="5" t="n">
+      <c r="W19" s="5">
+        <v>0</v>
+      </c>
+      <c r="X19" s="5">
         <v>3</v>
       </c>
-      <c r="Y19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="5" t="n">
+      <c r="Y19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="5">
         <v>0</v>
       </c>
       <c r="AV19" s="4">
-        <f>SUMPRODUCT(A17:E21,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AW19" s="4">
-        <f>SUMPRODUCT(B17:F21,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AX19" s="4">
-        <f>SUMPRODUCT(C17:G21,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AY19" s="4">
-        <f>SUMPRODUCT(D17:H21,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AZ19" s="4">
-        <f>SUMPRODUCT(E17:I21,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>2517</v>
       </c>
       <c r="BA19" s="4">
-        <f>SUMPRODUCT(F17:J21,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>7845</v>
       </c>
       <c r="BB19" s="4">
-        <f>SUMPRODUCT(G17:K21,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>10339</v>
       </c>
       <c r="BC19" s="4">
-        <f>SUMPRODUCT(H17:L21,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>18441</v>
       </c>
       <c r="BD19" s="4">
-        <f>SUMPRODUCT(I17:M21,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>21920</v>
       </c>
       <c r="BE19" s="4">
-        <f>SUMPRODUCT(J17:N21,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="9"/>
+        <v>27852</v>
       </c>
       <c r="BF19" s="4">
-        <f>SUMPRODUCT(K17:O21,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>138524</v>
       </c>
       <c r="BG19" s="4">
-        <f>SUMPRODUCT(L17:P21,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>359662</v>
       </c>
       <c r="BH19" s="4">
-        <f>SUMPRODUCT(M17:Q21,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>552030</v>
       </c>
       <c r="BI19" s="4">
-        <f>SUMPRODUCT(N17:R21,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>508557</v>
       </c>
       <c r="BJ19" s="4">
-        <f>SUMPRODUCT(O17:S21,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>357284</v>
       </c>
       <c r="BK19" s="4">
-        <f>SUMPRODUCT(P17:T21,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="15"/>
+        <v>292448</v>
       </c>
       <c r="BL19" s="4">
-        <f>SUMPRODUCT(Q17:U21,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>245786</v>
       </c>
       <c r="BM19" s="4">
-        <f>SUMPRODUCT(R17:V21,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>129061</v>
       </c>
       <c r="BN19" s="4">
-        <f>SUMPRODUCT(S17:W21,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="18"/>
+        <v>23829</v>
       </c>
       <c r="BO19" s="4">
-        <f>SUMPRODUCT(T17:X21,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="19"/>
+        <v>7819</v>
       </c>
       <c r="BP19" s="4">
-        <f>SUMPRODUCT(U17:Y21,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="20"/>
+        <v>7117</v>
       </c>
       <c r="BQ19" s="4">
-        <f>SUMPRODUCT(V17:Z21,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>4455</v>
       </c>
       <c r="BR19" s="4">
-        <f>SUMPRODUCT(W17:AA21,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="22"/>
+        <v>2627</v>
       </c>
       <c r="BS19" s="4">
-        <f>SUMPRODUCT(X17:AB21,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="23"/>
+        <v>2292</v>
       </c>
     </row>
-    <row r="20" ht="39.6" customHeight="1">
-      <c r="A20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="5" t="n">
+    <row r="20" spans="1:71" ht="39.6" customHeight="1">
+      <c r="A20" s="5">
+        <v>0</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
         <v>3</v>
       </c>
-      <c r="J20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="5" t="n">
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5">
         <v>21</v>
       </c>
-      <c r="M20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5" t="n">
+      <c r="M20" s="5">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5">
         <v>23</v>
       </c>
-      <c r="O20" s="5" t="n">
+      <c r="O20" s="5">
         <v>237</v>
       </c>
-      <c r="P20" s="5" t="n">
+      <c r="P20" s="5">
         <v>252</v>
       </c>
-      <c r="Q20" s="5" t="n">
+      <c r="Q20" s="5">
         <v>147</v>
       </c>
-      <c r="R20" s="5" t="n">
+      <c r="R20" s="5">
         <v>9</v>
       </c>
-      <c r="S20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" s="5" t="n">
+      <c r="S20" s="5">
+        <v>0</v>
+      </c>
+      <c r="T20" s="5">
+        <v>0</v>
+      </c>
+      <c r="U20" s="5">
+        <v>0</v>
+      </c>
+      <c r="V20" s="5">
         <v>3</v>
       </c>
-      <c r="W20" s="5" t="n">
+      <c r="W20" s="5">
         <v>1</v>
       </c>
-      <c r="X20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="5" t="n">
+      <c r="X20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="5">
         <v>0</v>
       </c>
       <c r="AV20" s="4">
-        <f>SUMPRODUCT(A18:E22,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AW20" s="4">
-        <f>SUMPRODUCT(B18:F22,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AX20" s="4">
-        <f>SUMPRODUCT(C18:G22,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AY20" s="4">
-        <f>SUMPRODUCT(D18:H22,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AZ20" s="4">
-        <f>SUMPRODUCT(E18:I22,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>3381</v>
       </c>
       <c r="BA20" s="4">
-        <f>SUMPRODUCT(F18:J22,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>8539</v>
       </c>
       <c r="BB20" s="4">
-        <f>SUMPRODUCT(G18:K22,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>10882</v>
       </c>
       <c r="BC20" s="4">
-        <f>SUMPRODUCT(H18:L22,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>18418</v>
       </c>
       <c r="BD20" s="4">
-        <f>SUMPRODUCT(I18:M22,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>23683</v>
       </c>
       <c r="BE20" s="4">
-        <f>SUMPRODUCT(J18:N22,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="9"/>
+        <v>91613</v>
       </c>
       <c r="BF20" s="4">
-        <f>SUMPRODUCT(K18:O22,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>282708</v>
       </c>
       <c r="BG20" s="4">
-        <f>SUMPRODUCT(L18:P22,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>522356</v>
       </c>
       <c r="BH20" s="4">
-        <f>SUMPRODUCT(M18:Q22,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>554044</v>
       </c>
       <c r="BI20" s="4">
-        <f>SUMPRODUCT(N18:R22,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>433782</v>
       </c>
       <c r="BJ20" s="4">
-        <f>SUMPRODUCT(O18:S22,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>327662</v>
       </c>
       <c r="BK20" s="4">
-        <f>SUMPRODUCT(P18:T22,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="15"/>
+        <v>294573</v>
       </c>
       <c r="BL20" s="4">
-        <f>SUMPRODUCT(Q18:U22,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>192218</v>
       </c>
       <c r="BM20" s="4">
-        <f>SUMPRODUCT(R18:V22,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>70679</v>
       </c>
       <c r="BN20" s="4">
-        <f>SUMPRODUCT(S18:W22,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="18"/>
+        <v>13627</v>
       </c>
       <c r="BO20" s="4">
-        <f>SUMPRODUCT(T18:X22,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="19"/>
+        <v>9017</v>
       </c>
       <c r="BP20" s="4">
-        <f>SUMPRODUCT(U18:Y22,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="20"/>
+        <v>7988</v>
       </c>
       <c r="BQ20" s="4">
-        <f>SUMPRODUCT(V18:Z22,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>5205</v>
       </c>
       <c r="BR20" s="4">
-        <f>SUMPRODUCT(W18:AA22,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="22"/>
+        <v>2307</v>
       </c>
       <c r="BS20" s="4">
-        <f>SUMPRODUCT(X18:AB22,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="23"/>
+        <v>1978</v>
       </c>
     </row>
-    <row r="21" ht="39.6" customHeight="1">
-      <c r="A21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="5" t="n">
+    <row r="21" spans="1:71" ht="39.6" customHeight="1">
+      <c r="A21" s="5">
+        <v>0</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
         <v>7</v>
       </c>
-      <c r="J21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="5" t="n">
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
         <v>17</v>
       </c>
-      <c r="L21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5" t="n">
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5">
         <v>205</v>
       </c>
-      <c r="O21" s="5" t="n">
+      <c r="O21" s="5">
         <v>250</v>
       </c>
-      <c r="P21" s="5" t="n">
+      <c r="P21" s="5">
         <v>220</v>
       </c>
-      <c r="Q21" s="5" t="n">
+      <c r="Q21" s="5">
         <v>43</v>
       </c>
-      <c r="R21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" s="5" t="n">
+      <c r="R21" s="5">
+        <v>0</v>
+      </c>
+      <c r="S21" s="5">
         <v>7</v>
       </c>
-      <c r="T21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" s="5" t="n">
+      <c r="T21" s="5">
+        <v>0</v>
+      </c>
+      <c r="U21" s="5">
         <v>4</v>
       </c>
-      <c r="V21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" s="5" t="n">
+      <c r="V21" s="5">
+        <v>0</v>
+      </c>
+      <c r="W21" s="5">
         <v>6</v>
       </c>
-      <c r="X21" s="5" t="n">
+      <c r="X21" s="5">
         <v>1</v>
       </c>
-      <c r="Y21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="5" t="n">
+      <c r="Y21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="5">
         <v>0</v>
       </c>
       <c r="AV21" s="4">
-        <f>SUMPRODUCT(A19:E23,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AW21" s="4">
-        <f>SUMPRODUCT(B19:F23,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AX21" s="4">
-        <f>SUMPRODUCT(C19:G23,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AY21" s="4">
-        <f>SUMPRODUCT(D19:H23,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AZ21" s="4">
-        <f>SUMPRODUCT(E19:I23,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>3870</v>
       </c>
       <c r="BA21" s="4">
-        <f>SUMPRODUCT(F19:J23,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>7612</v>
       </c>
       <c r="BB21" s="4">
-        <f>SUMPRODUCT(G19:K23,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>12249</v>
       </c>
       <c r="BC21" s="4">
-        <f>SUMPRODUCT(H19:L23,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>20235</v>
       </c>
       <c r="BD21" s="4">
-        <f>SUMPRODUCT(I19:M23,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>43825</v>
       </c>
       <c r="BE21" s="4">
-        <f>SUMPRODUCT(J19:N23,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="9"/>
+        <v>209195</v>
       </c>
       <c r="BF21" s="4">
-        <f>SUMPRODUCT(K19:O23,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>451218</v>
       </c>
       <c r="BG21" s="4">
-        <f>SUMPRODUCT(L19:P23,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>565968</v>
       </c>
       <c r="BH21" s="4">
-        <f>SUMPRODUCT(M19:Q23,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>491531</v>
       </c>
       <c r="BI21" s="4">
-        <f>SUMPRODUCT(N19:R23,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>370359</v>
       </c>
       <c r="BJ21" s="4">
-        <f>SUMPRODUCT(O19:S23,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>328655</v>
       </c>
       <c r="BK21" s="4">
-        <f>SUMPRODUCT(P19:T23,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="15"/>
+        <v>247441</v>
       </c>
       <c r="BL21" s="4">
-        <f>SUMPRODUCT(Q19:U23,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>120503</v>
       </c>
       <c r="BM21" s="4">
-        <f>SUMPRODUCT(R19:V23,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>27754</v>
       </c>
       <c r="BN21" s="4">
-        <f>SUMPRODUCT(S19:W23,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="18"/>
+        <v>8562</v>
       </c>
       <c r="BO21" s="4">
-        <f>SUMPRODUCT(T19:X23,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="19"/>
+        <v>7254</v>
       </c>
       <c r="BP21" s="4">
-        <f>SUMPRODUCT(U19:Y23,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="20"/>
+        <v>5649</v>
       </c>
       <c r="BQ21" s="4">
-        <f>SUMPRODUCT(V19:Z23,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>4032</v>
       </c>
       <c r="BR21" s="4">
-        <f>SUMPRODUCT(W19:AA23,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="22"/>
+        <v>1187</v>
       </c>
       <c r="BS21" s="4">
-        <f>SUMPRODUCT(X19:AB23,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="23"/>
+        <v>778</v>
       </c>
     </row>
-    <row r="22" ht="39.6" customHeight="1">
-      <c r="A22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="5" t="n">
+    <row r="22" spans="1:71" ht="39.6" customHeight="1">
+      <c r="A22" s="5">
+        <v>0</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
         <v>6</v>
       </c>
-      <c r="J22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="5" t="n">
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
         <v>15</v>
       </c>
-      <c r="M22" s="5" t="n">
+      <c r="M22" s="5">
         <v>71</v>
       </c>
-      <c r="N22" s="5" t="n">
+      <c r="N22" s="5">
         <v>245</v>
       </c>
-      <c r="O22" s="5" t="n">
+      <c r="O22" s="5">
         <v>255</v>
       </c>
-      <c r="P22" s="5" t="n">
+      <c r="P22" s="5">
         <v>70</v>
       </c>
-      <c r="Q22" s="5" t="n">
+      <c r="Q22" s="5">
         <v>3</v>
       </c>
-      <c r="R22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" s="5" t="n">
+      <c r="R22" s="5">
+        <v>0</v>
+      </c>
+      <c r="S22" s="5">
+        <v>0</v>
+      </c>
+      <c r="T22" s="5">
+        <v>0</v>
+      </c>
+      <c r="U22" s="5">
         <v>11</v>
       </c>
-      <c r="V22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" s="5" t="n">
+      <c r="V22" s="5">
+        <v>0</v>
+      </c>
+      <c r="W22" s="5">
+        <v>0</v>
+      </c>
+      <c r="X22" s="5">
         <v>3</v>
       </c>
-      <c r="Y22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="5" t="n">
+      <c r="Y22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="5">
         <v>0</v>
       </c>
       <c r="AV22" s="4">
-        <f>SUMPRODUCT(A20:E24,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AW22" s="4">
-        <f>SUMPRODUCT(B20:F24,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AX22" s="4">
-        <f>SUMPRODUCT(C20:G24,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AY22" s="4">
-        <f>SUMPRODUCT(D20:H24,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AZ22" s="4">
-        <f>SUMPRODUCT(E20:I24,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>4092</v>
       </c>
       <c r="BA22" s="4">
-        <f>SUMPRODUCT(F20:J24,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>6893</v>
       </c>
       <c r="BB22" s="4">
-        <f>SUMPRODUCT(G20:K24,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>10313</v>
       </c>
       <c r="BC22" s="4">
-        <f>SUMPRODUCT(H20:L24,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>29257</v>
       </c>
       <c r="BD22" s="4">
-        <f>SUMPRODUCT(I20:M24,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>124554</v>
       </c>
       <c r="BE22" s="4">
-        <f>SUMPRODUCT(J20:N24,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="9"/>
+        <v>359168</v>
       </c>
       <c r="BF22" s="4">
-        <f>SUMPRODUCT(K20:O24,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>578703</v>
       </c>
       <c r="BG22" s="4">
-        <f>SUMPRODUCT(L20:P24,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>556680</v>
       </c>
       <c r="BH22" s="4">
-        <f>SUMPRODUCT(M20:Q24,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>427787</v>
       </c>
       <c r="BI22" s="4">
-        <f>SUMPRODUCT(N20:R24,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>363903</v>
       </c>
       <c r="BJ22" s="4">
-        <f>SUMPRODUCT(O20:S24,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>296153</v>
       </c>
       <c r="BK22" s="4">
-        <f>SUMPRODUCT(P20:T24,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="15"/>
+        <v>171190</v>
       </c>
       <c r="BL22" s="4">
-        <f>SUMPRODUCT(Q20:U24,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>58934</v>
       </c>
       <c r="BM22" s="4">
-        <f>SUMPRODUCT(R20:V24,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>11443</v>
       </c>
       <c r="BN22" s="4">
-        <f>SUMPRODUCT(S20:W24,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="18"/>
+        <v>9293</v>
       </c>
       <c r="BO22" s="4">
-        <f>SUMPRODUCT(T20:X24,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="19"/>
+        <v>7805</v>
       </c>
       <c r="BP22" s="4">
-        <f>SUMPRODUCT(U20:Y24,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="20"/>
+        <v>6018</v>
       </c>
       <c r="BQ22" s="4">
-        <f>SUMPRODUCT(V20:Z24,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>2926</v>
       </c>
       <c r="BR22" s="4">
-        <f>SUMPRODUCT(W20:AA24,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="22"/>
+        <v>2094</v>
       </c>
       <c r="BS22" s="4">
-        <f>SUMPRODUCT(X20:AB24,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="23"/>
+        <v>325</v>
       </c>
     </row>
-    <row r="23" ht="39.6" customHeight="1">
-      <c r="A23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="5" t="n">
+    <row r="23" spans="1:71" ht="39.6" customHeight="1">
+      <c r="A23" s="5">
+        <v>0</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
         <v>11</v>
       </c>
-      <c r="K23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="5" t="n">
+      <c r="K23" s="5">
+        <v>0</v>
+      </c>
+      <c r="L23" s="5">
         <v>31</v>
       </c>
-      <c r="M23" s="5" t="n">
+      <c r="M23" s="5">
         <v>206</v>
       </c>
-      <c r="N23" s="5" t="n">
+      <c r="N23" s="5">
         <v>249</v>
       </c>
-      <c r="O23" s="5" t="n">
+      <c r="O23" s="5">
         <v>126</v>
       </c>
-      <c r="P23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="5" t="n">
+      <c r="P23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="5">
         <v>4</v>
       </c>
-      <c r="R23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" s="5" t="n">
+      <c r="R23" s="5">
+        <v>0</v>
+      </c>
+      <c r="S23" s="5">
+        <v>0</v>
+      </c>
+      <c r="T23" s="5">
+        <v>0</v>
+      </c>
+      <c r="U23" s="5">
         <v>7</v>
       </c>
-      <c r="V23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" s="5" t="n">
+      <c r="V23" s="5">
+        <v>0</v>
+      </c>
+      <c r="W23" s="5">
+        <v>0</v>
+      </c>
+      <c r="X23" s="5">
         <v>1</v>
       </c>
-      <c r="Y23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="5" t="n">
+      <c r="Y23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="5">
         <v>0</v>
       </c>
       <c r="AV23" s="4">
-        <f>SUMPRODUCT(A21:E25,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AW23" s="4">
-        <f>SUMPRODUCT(B21:F25,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AX23" s="4">
-        <f>SUMPRODUCT(C21:G25,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AY23" s="4">
-        <f>SUMPRODUCT(D21:H25,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AZ23" s="4">
-        <f>SUMPRODUCT(E21:I25,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>3799</v>
       </c>
       <c r="BA23" s="4">
-        <f>SUMPRODUCT(F21:J25,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>8045</v>
       </c>
       <c r="BB23" s="4">
-        <f>SUMPRODUCT(G21:K25,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>15489</v>
       </c>
       <c r="BC23" s="4">
-        <f>SUMPRODUCT(H21:L25,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>71372</v>
       </c>
       <c r="BD23" s="4">
-        <f>SUMPRODUCT(I21:M25,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>259961</v>
       </c>
       <c r="BE23" s="4">
-        <f>SUMPRODUCT(J21:N25,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="9"/>
+        <v>525186</v>
       </c>
       <c r="BF23" s="4">
-        <f>SUMPRODUCT(K21:O25,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>622809</v>
       </c>
       <c r="BG23" s="4">
-        <f>SUMPRODUCT(L21:P25,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>521964</v>
       </c>
       <c r="BH23" s="4">
-        <f>SUMPRODUCT(M21:Q25,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>397266</v>
       </c>
       <c r="BI23" s="4">
-        <f>SUMPRODUCT(N21:R25,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>336686</v>
       </c>
       <c r="BJ23" s="4">
-        <f>SUMPRODUCT(O21:S25,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>214667</v>
       </c>
       <c r="BK23" s="4">
-        <f>SUMPRODUCT(P21:T25,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="15"/>
+        <v>86542</v>
       </c>
       <c r="BL23" s="4">
-        <f>SUMPRODUCT(Q21:U25,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>20443</v>
       </c>
       <c r="BM23" s="4">
-        <f>SUMPRODUCT(R21:V25,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>9531</v>
       </c>
       <c r="BN23" s="4">
-        <f>SUMPRODUCT(S21:W25,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="18"/>
+        <v>9950</v>
       </c>
       <c r="BO23" s="4">
-        <f>SUMPRODUCT(T21:X25,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="19"/>
+        <v>8267</v>
       </c>
       <c r="BP23" s="4">
-        <f>SUMPRODUCT(U21:Y25,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="20"/>
+        <v>6580</v>
       </c>
       <c r="BQ23" s="4">
-        <f>SUMPRODUCT(V21:Z25,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>2569</v>
       </c>
       <c r="BR23" s="4">
-        <f>SUMPRODUCT(W21:AA25,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="22"/>
+        <v>2463</v>
       </c>
       <c r="BS23" s="4">
-        <f>SUMPRODUCT(X21:AB25,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="23"/>
+        <v>1024</v>
       </c>
     </row>
-    <row r="24" ht="39.6" customHeight="1">
-      <c r="A24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="5" t="n">
+    <row r="24" spans="1:71" ht="39.6" customHeight="1">
+      <c r="A24" s="5">
+        <v>0</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
         <v>2</v>
       </c>
-      <c r="J24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="5" t="n">
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5">
         <v>12</v>
       </c>
-      <c r="L24" s="5" t="n">
+      <c r="L24" s="5">
         <v>124</v>
       </c>
-      <c r="M24" s="5" t="n">
+      <c r="M24" s="5">
         <v>255</v>
       </c>
-      <c r="N24" s="5" t="n">
+      <c r="N24" s="5">
         <v>255</v>
       </c>
-      <c r="O24" s="5" t="n">
+      <c r="O24" s="5">
         <v>47</v>
       </c>
-      <c r="P24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="5" t="n">
+      <c r="P24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="5">
         <v>5</v>
       </c>
-      <c r="R24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" s="5" t="n">
+      <c r="R24" s="5">
+        <v>0</v>
+      </c>
+      <c r="S24" s="5">
         <v>13</v>
       </c>
-      <c r="T24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" s="5" t="n">
+      <c r="T24" s="5">
+        <v>0</v>
+      </c>
+      <c r="U24" s="5">
+        <v>0</v>
+      </c>
+      <c r="V24" s="5">
         <v>11</v>
       </c>
-      <c r="W24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="5" t="n">
+      <c r="W24" s="5">
+        <v>0</v>
+      </c>
+      <c r="X24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="5">
         <v>0</v>
       </c>
       <c r="AV24" s="4">
-        <f>SUMPRODUCT(A22:E26,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AW24" s="4">
-        <f>SUMPRODUCT(B22:F26,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AX24" s="4">
-        <f>SUMPRODUCT(C22:G26,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AY24" s="4">
-        <f>SUMPRODUCT(D22:H26,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AZ24" s="4">
-        <f>SUMPRODUCT(E22:I26,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>3336</v>
       </c>
       <c r="BA24" s="4">
-        <f>SUMPRODUCT(F22:J26,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>6363</v>
       </c>
       <c r="BB24" s="4">
-        <f>SUMPRODUCT(G22:K26,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>28504</v>
       </c>
       <c r="BC24" s="4">
-        <f>SUMPRODUCT(H22:L26,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>156312</v>
       </c>
       <c r="BD24" s="4">
-        <f>SUMPRODUCT(I22:M26,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>403668</v>
       </c>
       <c r="BE24" s="4">
-        <f>SUMPRODUCT(J22:N26,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="9"/>
+        <v>632138</v>
       </c>
       <c r="BF24" s="4">
-        <f>SUMPRODUCT(K22:O26,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>636767</v>
       </c>
       <c r="BG24" s="4">
-        <f>SUMPRODUCT(L22:P26,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>484687</v>
       </c>
       <c r="BH24" s="4">
-        <f>SUMPRODUCT(M22:Q26,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>361001</v>
       </c>
       <c r="BI24" s="4">
-        <f>SUMPRODUCT(N22:R26,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>248954</v>
       </c>
       <c r="BJ24" s="4">
-        <f>SUMPRODUCT(O22:S26,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>116474</v>
       </c>
       <c r="BK24" s="4">
-        <f>SUMPRODUCT(P22:T26,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="15"/>
+        <v>21890</v>
       </c>
       <c r="BL24" s="4">
-        <f>SUMPRODUCT(Q22:U26,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>6537</v>
       </c>
       <c r="BM24" s="4">
-        <f>SUMPRODUCT(R22:V26,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>7529</v>
       </c>
       <c r="BN24" s="4">
-        <f>SUMPRODUCT(S22:W26,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="18"/>
+        <v>7334</v>
       </c>
       <c r="BO24" s="4">
-        <f>SUMPRODUCT(T22:X26,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="19"/>
+        <v>5510</v>
       </c>
       <c r="BP24" s="4">
-        <f>SUMPRODUCT(U22:Y26,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="20"/>
+        <v>5653</v>
       </c>
       <c r="BQ24" s="4">
-        <f>SUMPRODUCT(V22:Z26,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>1181</v>
       </c>
       <c r="BR24" s="4">
-        <f>SUMPRODUCT(W22:AA26,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="22"/>
+        <v>960</v>
       </c>
       <c r="BS24" s="4">
-        <f>SUMPRODUCT(X22:AB26,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="23"/>
+        <v>975</v>
       </c>
     </row>
-    <row r="25" ht="39.6" customHeight="1">
-      <c r="A25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="5" t="n">
+    <row r="25" spans="1:71" ht="39.6" customHeight="1">
+      <c r="A25" s="5">
+        <v>0</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
         <v>6</v>
       </c>
-      <c r="J25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="5" t="n">
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="5">
         <v>73</v>
       </c>
-      <c r="L25" s="5" t="n">
+      <c r="L25" s="5">
         <v>235</v>
       </c>
-      <c r="M25" s="5" t="n">
+      <c r="M25" s="5">
         <v>248</v>
       </c>
-      <c r="N25" s="5" t="n">
+      <c r="N25" s="5">
         <v>251</v>
       </c>
-      <c r="O25" s="5" t="n">
+      <c r="O25" s="5">
         <v>53</v>
       </c>
-      <c r="P25" s="5" t="n">
+      <c r="P25" s="5">
         <v>7</v>
       </c>
-      <c r="Q25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="5" t="n">
+      <c r="Q25" s="5">
+        <v>0</v>
+      </c>
+      <c r="R25" s="5">
+        <v>0</v>
+      </c>
+      <c r="S25" s="5">
+        <v>0</v>
+      </c>
+      <c r="T25" s="5">
+        <v>0</v>
+      </c>
+      <c r="U25" s="5">
+        <v>0</v>
+      </c>
+      <c r="V25" s="5">
+        <v>0</v>
+      </c>
+      <c r="W25" s="5">
+        <v>0</v>
+      </c>
+      <c r="X25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="5">
         <v>0</v>
       </c>
       <c r="AV25" s="4">
-        <f>SUMPRODUCT(A23:E27,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AW25" s="4">
-        <f>SUMPRODUCT(B23:F27,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AX25" s="4">
-        <f>SUMPRODUCT(C23:G27,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AY25" s="4">
-        <f>SUMPRODUCT(D23:H27,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AZ25" s="4">
-        <f>SUMPRODUCT(E23:I27,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>2040</v>
       </c>
       <c r="BA25" s="4">
-        <f>SUMPRODUCT(F23:J27,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>7149</v>
       </c>
       <c r="BB25" s="4">
-        <f>SUMPRODUCT(G23:K27,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>55131</v>
       </c>
       <c r="BC25" s="4">
-        <f>SUMPRODUCT(H23:L27,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>244997</v>
       </c>
       <c r="BD25" s="4">
-        <f>SUMPRODUCT(I23:M27,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>519475</v>
       </c>
       <c r="BE25" s="4">
-        <f>SUMPRODUCT(J23:N27,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="9"/>
+        <v>695355</v>
       </c>
       <c r="BF25" s="4">
-        <f>SUMPRODUCT(K23:O27,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>599770</v>
       </c>
       <c r="BG25" s="4">
-        <f>SUMPRODUCT(L23:P27,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>423984</v>
       </c>
       <c r="BH25" s="4">
-        <f>SUMPRODUCT(M23:Q27,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>315410</v>
       </c>
       <c r="BI25" s="4">
-        <f>SUMPRODUCT(N23:R27,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>183693</v>
       </c>
       <c r="BJ25" s="4">
-        <f>SUMPRODUCT(O23:S27,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>51775</v>
       </c>
       <c r="BK25" s="4">
-        <f>SUMPRODUCT(P23:T27,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="15"/>
+        <v>5663</v>
       </c>
       <c r="BL25" s="4">
-        <f>SUMPRODUCT(Q23:U27,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>7307</v>
       </c>
       <c r="BM25" s="4">
-        <f>SUMPRODUCT(R23:V27,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>7800</v>
       </c>
       <c r="BN25" s="4">
-        <f>SUMPRODUCT(S23:W27,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="18"/>
+        <v>7793</v>
       </c>
       <c r="BO25" s="4">
-        <f>SUMPRODUCT(T23:X27,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="19"/>
+        <v>4701</v>
       </c>
       <c r="BP25" s="4">
-        <f>SUMPRODUCT(U23:Y27,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="20"/>
+        <v>4725</v>
       </c>
       <c r="BQ25" s="4">
-        <f>SUMPRODUCT(V23:Z27,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>3044</v>
       </c>
       <c r="BR25" s="4">
-        <f>SUMPRODUCT(W23:AA27,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="22"/>
+        <v>235</v>
       </c>
       <c r="BS25" s="4">
-        <f>SUMPRODUCT(X23:AB27,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="23"/>
+        <v>240</v>
       </c>
     </row>
-    <row r="26" ht="39.6" customHeight="1">
-      <c r="A26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="5" t="n">
+    <row r="26" spans="1:71" ht="39.6" customHeight="1">
+      <c r="A26" s="5">
+        <v>0</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
         <v>11</v>
       </c>
-      <c r="K26" s="5" t="n">
+      <c r="K26" s="5">
         <v>118</v>
       </c>
-      <c r="L26" s="5" t="n">
+      <c r="L26" s="5">
         <v>250</v>
       </c>
-      <c r="M26" s="5" t="n">
+      <c r="M26" s="5">
         <v>255</v>
       </c>
-      <c r="N26" s="5" t="n">
+      <c r="N26" s="5">
         <v>222</v>
       </c>
-      <c r="O26" s="5" t="n">
+      <c r="O26" s="5">
         <v>52</v>
       </c>
-      <c r="P26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="5" t="n">
+      <c r="P26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>0</v>
+      </c>
+      <c r="R26" s="5">
+        <v>0</v>
+      </c>
+      <c r="S26" s="5">
+        <v>0</v>
+      </c>
+      <c r="T26" s="5">
+        <v>0</v>
+      </c>
+      <c r="U26" s="5">
+        <v>0</v>
+      </c>
+      <c r="V26" s="5">
+        <v>0</v>
+      </c>
+      <c r="W26" s="5">
+        <v>0</v>
+      </c>
+      <c r="X26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="5">
         <v>0</v>
       </c>
       <c r="AV26" s="4">
-        <f>SUMPRODUCT(A24:E28,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AW26" s="4">
-        <f>SUMPRODUCT(B24:F28,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AX26" s="4">
-        <f>SUMPRODUCT(C24:G28,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AY26" s="4">
-        <f>SUMPRODUCT(D24:H28,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AZ26" s="4">
-        <f>SUMPRODUCT(E24:I28,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>2152</v>
       </c>
       <c r="BA26" s="4">
-        <f>SUMPRODUCT(F24:J28,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>7365</v>
       </c>
       <c r="BB26" s="4">
-        <f>SUMPRODUCT(G24:K28,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>86888</v>
       </c>
       <c r="BC26" s="4">
-        <f>SUMPRODUCT(H24:L28,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>295850</v>
       </c>
       <c r="BD26" s="4">
-        <f>SUMPRODUCT(I24:M28,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>496207</v>
       </c>
       <c r="BE26" s="4">
-        <f>SUMPRODUCT(J24:N28,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="9"/>
+        <v>585204</v>
       </c>
       <c r="BF26" s="4">
-        <f>SUMPRODUCT(K24:O28,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>504567</v>
       </c>
       <c r="BG26" s="4">
-        <f>SUMPRODUCT(L24:P28,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>405880</v>
       </c>
       <c r="BH26" s="4">
-        <f>SUMPRODUCT(M24:Q28,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>297464</v>
       </c>
       <c r="BI26" s="4">
-        <f>SUMPRODUCT(N24:R28,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>162913</v>
       </c>
       <c r="BJ26" s="4">
-        <f>SUMPRODUCT(O24:S28,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>32026</v>
       </c>
       <c r="BK26" s="4">
-        <f>SUMPRODUCT(P24:T28,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="15"/>
+        <v>6392</v>
       </c>
       <c r="BL26" s="4">
-        <f>SUMPRODUCT(Q24:U28,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>4307</v>
       </c>
       <c r="BM26" s="4">
-        <f>SUMPRODUCT(R24:V28,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>5816</v>
       </c>
       <c r="BN26" s="4">
-        <f>SUMPRODUCT(S24:W28,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="18"/>
+        <v>5760</v>
       </c>
       <c r="BO26" s="4">
-        <f>SUMPRODUCT(T24:X28,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="19"/>
+        <v>2629</v>
       </c>
       <c r="BP26" s="4">
-        <f>SUMPRODUCT(U24:Y28,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="20"/>
+        <v>2585</v>
       </c>
       <c r="BQ26" s="4">
-        <f>SUMPRODUCT(V24:Z28,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>2640</v>
       </c>
       <c r="BR26" s="4">
-        <f>SUMPRODUCT(W24:AA28,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="BS26" s="4">
-        <f>SUMPRODUCT(X24:AB28,$AH$8:$AL$12)</f>
-        <v/>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="27" ht="39.6" customHeight="1">
-      <c r="A27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="5" t="n">
+    <row r="27" spans="1:71" ht="39.6" customHeight="1">
+      <c r="A27" s="5">
+        <v>0</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5">
         <v>127</v>
       </c>
-      <c r="L27" s="5" t="n">
+      <c r="L27" s="5">
         <v>255</v>
       </c>
-      <c r="M27" s="5" t="n">
+      <c r="M27" s="5">
         <v>207</v>
       </c>
-      <c r="N27" s="5" t="n">
+      <c r="N27" s="5">
         <v>33</v>
       </c>
-      <c r="O27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" s="5" t="n">
+      <c r="O27" s="5">
+        <v>0</v>
+      </c>
+      <c r="P27" s="5">
         <v>24</v>
       </c>
-      <c r="Q27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="5" t="n">
+      <c r="Q27" s="5">
+        <v>0</v>
+      </c>
+      <c r="R27" s="5">
+        <v>0</v>
+      </c>
+      <c r="S27" s="5">
+        <v>0</v>
+      </c>
+      <c r="T27" s="5">
+        <v>0</v>
+      </c>
+      <c r="U27" s="5">
+        <v>0</v>
+      </c>
+      <c r="V27" s="5">
+        <v>0</v>
+      </c>
+      <c r="W27" s="5">
+        <v>0</v>
+      </c>
+      <c r="X27" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="39.6" customHeight="1">
-      <c r="A28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="5" t="n">
+    <row r="28" spans="1:71" ht="39.6" customHeight="1">
+      <c r="A28" s="5">
+        <v>0</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
         <v>10</v>
       </c>
-      <c r="J28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" s="5" t="n">
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0</v>
+      </c>
+      <c r="M28" s="5">
+        <v>0</v>
+      </c>
+      <c r="N28" s="5">
+        <v>0</v>
+      </c>
+      <c r="O28" s="5">
         <v>8</v>
       </c>
-      <c r="P28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="5" t="n">
+      <c r="P28" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>0</v>
+      </c>
+      <c r="R28" s="5">
+        <v>0</v>
+      </c>
+      <c r="S28" s="5">
+        <v>0</v>
+      </c>
+      <c r="T28" s="5">
+        <v>0</v>
+      </c>
+      <c r="U28" s="5">
+        <v>0</v>
+      </c>
+      <c r="V28" s="5">
+        <v>0</v>
+      </c>
+      <c r="W28" s="5">
+        <v>0</v>
+      </c>
+      <c r="X28" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A29:YC31 A37:YC480 F32:YC36 AC1:AF5 AL1:AS5 AC6:AS7 BR1:YC2 AC25:AU26 AV3:YC26 AC13:AS24 AC8:AG12 AM8:AS12 AC27:YC28">
     <cfRule type="colorScale" priority="1173">
       <colorScale>
@@ -15693,6 +15714,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>